--- a/InputData/bldgs/SoCEUtiNTY/Share of Cpnt E Use that is New This Year.xlsx
+++ b/InputData/bldgs/SoCEUtiNTY/Share of Cpnt E Use that is New This Year.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11213"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipI\InputData\bldgs\SoCEUtiNTY\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathaniyer/Library/Containers/com.microsoft.Excel/Data/state-eps-data-repository/WI/bldgs/SoCEUtiNTY/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{82402864-5730-E144-8742-6AD4961B9B56}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="19425" windowHeight="11025"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -20,12 +21,23 @@
     <sheet name="Pre-Calibration Calculated Vals" sheetId="7" r:id="rId6"/>
     <sheet name="SoCEUtiNTY" sheetId="2" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="383">
   <si>
     <t>SoCEUtiNTY Share of Components Energy Use that is New This Year</t>
   </si>
@@ -1171,12 +1183,15 @@
   </si>
   <si>
     <t>Share of New Components Energy Use (dimensionless)</t>
+  </si>
+  <si>
+    <t>Wisconsin</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
@@ -1411,23 +1426,23 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
-    <cellStyle name="Body: normal cell" xfId="5"/>
-    <cellStyle name="Font: Calibri, 9pt regular" xfId="7"/>
-    <cellStyle name="Footnotes: top row" xfId="3"/>
-    <cellStyle name="Header: bottom row" xfId="6"/>
+    <cellStyle name="Body: normal cell" xfId="5" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Font: Calibri, 9pt regular" xfId="7" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Footnotes: top row" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Header: bottom row" xfId="6" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2"/>
-    <cellStyle name="Parent row" xfId="4"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Parent row" xfId="4" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
-    <cellStyle name="Table title" xfId="8"/>
+    <cellStyle name="Table title" xfId="8" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1518,6 +1533,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1553,6 +1585,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1728,22 +1777,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="52" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1751,167 +1803,167 @@
         <v>365</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B5" s="32">
         <v>2017</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B10" s="30" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B12" s="32">
         <v>2017</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B17" s="30" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B19" s="32">
         <v>2017</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B24" s="30" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B25" s="33" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>379</v>
       </c>
@@ -1923,18 +1975,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.42578125" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="25.33203125" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -1942,7 +1994,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1950,7 +2002,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1958,7 +2010,7 @@
         <v>15.833333333333334</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1966,7 +2018,7 @@
         <v>51.81818181818182</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1974,7 +2026,7 @@
         <v>9.1324200913242013</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1982,7 +2034,7 @@
         <v>13.533333333333333</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1996,7 +2048,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AM162"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2006,14 +2058,14 @@
       <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" style="6" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="43.5703125" style="6" customWidth="1"/>
-    <col min="3" max="16384" width="8.7109375" style="6"/>
+    <col min="1" max="1" width="19.83203125" style="6" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="43.6640625" style="6" customWidth="1"/>
+    <col min="3" max="16384" width="8.6640625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B1" s="21" t="s">
         <v>181</v>
       </c>
@@ -2126,8 +2178,8 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:39" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:39" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C3" s="23" t="s">
         <v>180</v>
       </c>
@@ -2138,7 +2190,7 @@
       <c r="F3" s="23"/>
       <c r="G3" s="23"/>
     </row>
-    <row r="4" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C4" s="23" t="s">
         <v>178</v>
       </c>
@@ -2151,7 +2203,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="5" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C5" s="23" t="s">
         <v>175</v>
       </c>
@@ -2162,7 +2214,7 @@
       <c r="F5" s="23"/>
       <c r="G5" s="23"/>
     </row>
-    <row r="6" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C6" s="23" t="s">
         <v>173</v>
       </c>
@@ -2173,7 +2225,7 @@
       <c r="F6" s="23"/>
       <c r="G6" s="23"/>
     </row>
-    <row r="10" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
         <v>339</v>
       </c>
@@ -2181,12 +2233,12 @@
         <v>338</v>
       </c>
     </row>
-    <row r="11" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="21" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="12" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="21" t="s">
         <v>168</v>
       </c>
@@ -2302,7 +2354,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="13" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B13" s="19" t="s">
         <v>166</v>
       </c>
@@ -2418,18 +2470,18 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="14" spans="1:39" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:39" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="10" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="16" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="10" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="17" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
         <v>336</v>
       </c>
@@ -2548,7 +2600,7 @@
         <v>8.4399999999999996E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
         <v>334</v>
       </c>
@@ -2667,7 +2719,7 @@
         <v>1.0499E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
         <v>332</v>
       </c>
@@ -2786,7 +2838,7 @@
         <v>-7.2430000000000003E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="11" t="s">
         <v>330</v>
       </c>
@@ -2905,7 +2957,7 @@
         <v>8.3569999999999998E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="11" t="s">
         <v>329</v>
       </c>
@@ -3024,17 +3076,17 @@
         <v>3.7309999999999999E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="10" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="25" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="10" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="26" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
         <v>325</v>
       </c>
@@ -3153,7 +3205,7 @@
         <v>-7.7879999999999998E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="s">
         <v>324</v>
       </c>
@@ -3272,12 +3324,12 @@
         <v>-8.8489999999999992E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="10" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="29" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="11" t="s">
         <v>323</v>
       </c>
@@ -3396,7 +3448,7 @@
         <v>-1.1476E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="11" t="s">
         <v>321</v>
       </c>
@@ -3515,17 +3567,17 @@
         <v>-1.2533000000000001E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="10" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="33" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="10" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="34" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="11" t="s">
         <v>319</v>
       </c>
@@ -3644,7 +3696,7 @@
         <v>-1.041E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="11" t="s">
         <v>318</v>
       </c>
@@ -3763,7 +3815,7 @@
         <v>6.9200000000000002E-4</v>
       </c>
     </row>
-    <row r="36" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="11" t="s">
         <v>317</v>
       </c>
@@ -3882,7 +3934,7 @@
         <v>1.9040000000000001E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="11" t="s">
         <v>316</v>
       </c>
@@ -4001,7 +4053,7 @@
         <v>3.362E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="11" t="s">
         <v>315</v>
       </c>
@@ -4120,7 +4172,7 @@
         <v>1.0992999999999999E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="11" t="s">
         <v>314</v>
       </c>
@@ -4239,7 +4291,7 @@
         <v>8.9499999999999996E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="11" t="s">
         <v>313</v>
       </c>
@@ -4358,7 +4410,7 @@
         <v>-2.4559999999999998E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="11" t="s">
         <v>311</v>
       </c>
@@ -4477,7 +4529,7 @@
         <v>-1.7500999999999999E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="11" t="s">
         <v>310</v>
       </c>
@@ -4596,7 +4648,7 @@
         <v>-9.953E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="11" t="s">
         <v>308</v>
       </c>
@@ -4715,7 +4767,7 @@
         <v>1.2205000000000001E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="11" t="s">
         <v>306</v>
       </c>
@@ -4834,7 +4886,7 @@
         <v>5.1910000000000003E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="11" t="s">
         <v>304</v>
       </c>
@@ -4953,7 +5005,7 @@
         <v>-3.2238000000000003E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="11" t="s">
         <v>302</v>
       </c>
@@ -5072,7 +5124,7 @@
         <v>-2.0820000000000001E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="11" t="s">
         <v>300</v>
       </c>
@@ -5191,7 +5243,7 @@
         <v>6.9309999999999997E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="11" t="s">
         <v>299</v>
       </c>
@@ -5310,12 +5362,12 @@
         <v>2.2339999999999999E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B50" s="10" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="51" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="11" t="s">
         <v>298</v>
       </c>
@@ -5434,7 +5486,7 @@
         <v>2.9799999999999998E-4</v>
       </c>
     </row>
-    <row r="52" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="11" t="s">
         <v>297</v>
       </c>
@@ -5553,7 +5605,7 @@
         <v>-7.4190000000000002E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="11" t="s">
         <v>295</v>
       </c>
@@ -5672,7 +5724,7 @@
         <v>2.3839999999999998E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="11" t="s">
         <v>294</v>
       </c>
@@ -5791,7 +5843,7 @@
         <v>3.7450000000000001E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="11" t="s">
         <v>293</v>
       </c>
@@ -5910,7 +5962,7 @@
         <v>6.659E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="11" t="s">
         <v>291</v>
       </c>
@@ -6029,7 +6081,7 @@
         <v>-5.071E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="11" t="s">
         <v>289</v>
       </c>
@@ -6148,12 +6200,12 @@
         <v>8.1099999999999998E-4</v>
       </c>
     </row>
-    <row r="59" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B59" s="10" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="60" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="11" t="s">
         <v>288</v>
       </c>
@@ -6272,7 +6324,7 @@
         <v>-1.4128E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="11" t="s">
         <v>287</v>
       </c>
@@ -6391,7 +6443,7 @@
         <v>-3.7629999999999997E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="11" t="s">
         <v>286</v>
       </c>
@@ -6510,7 +6562,7 @@
         <v>-6.2040000000000003E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="11" t="s">
         <v>285</v>
       </c>
@@ -6629,12 +6681,12 @@
         <v>-1.5632E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B65" s="10" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="66" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="11" t="s">
         <v>283</v>
       </c>
@@ -6753,7 +6805,7 @@
         <v>-7.0309999999999999E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="11" t="s">
         <v>281</v>
       </c>
@@ -6872,7 +6924,7 @@
         <v>-1.7628999999999999E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="11" t="s">
         <v>279</v>
       </c>
@@ -6991,7 +7043,7 @@
         <v>-5.5599999999999998E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="11" t="s">
         <v>278</v>
       </c>
@@ -7110,7 +7162,7 @@
         <v>1.4448000000000001E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="11" t="s">
         <v>277</v>
       </c>
@@ -7229,7 +7281,7 @@
         <v>-4.9649999999999998E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="11" t="s">
         <v>276</v>
       </c>
@@ -7348,7 +7400,7 @@
         <v>-6.3109999999999998E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="11" t="s">
         <v>274</v>
       </c>
@@ -7467,12 +7519,12 @@
         <v>-2.0202999999999999E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B75" s="10" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="76" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="11" t="s">
         <v>272</v>
       </c>
@@ -7591,7 +7643,7 @@
         <v>-1.9480000000000001E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="11" t="s">
         <v>271</v>
       </c>
@@ -7710,7 +7762,7 @@
         <v>4.9600000000000002E-4</v>
       </c>
     </row>
-    <row r="78" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="11" t="s">
         <v>270</v>
       </c>
@@ -7829,7 +7881,7 @@
         <v>1.214E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="11" t="s">
         <v>269</v>
       </c>
@@ -7948,7 +8000,7 @@
         <v>3.362E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="11" t="s">
         <v>268</v>
       </c>
@@ -8067,7 +8119,7 @@
         <v>5.62E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="11" t="s">
         <v>267</v>
       </c>
@@ -8186,7 +8238,7 @@
         <v>8.5059999999999997E-3</v>
       </c>
     </row>
-    <row r="82" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="11" t="s">
         <v>266</v>
       </c>
@@ -8305,7 +8357,7 @@
         <v>-2.4559999999999998E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="11" t="s">
         <v>265</v>
       </c>
@@ -8424,7 +8476,7 @@
         <v>-1.7500999999999999E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="11" t="s">
         <v>264</v>
       </c>
@@ -8543,7 +8595,7 @@
         <v>-9.953E-3</v>
       </c>
     </row>
-    <row r="85" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="11" t="s">
         <v>263</v>
       </c>
@@ -8662,7 +8714,7 @@
         <v>1.2205000000000001E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="11" t="s">
         <v>262</v>
       </c>
@@ -8781,7 +8833,7 @@
         <v>5.1910000000000003E-3</v>
       </c>
     </row>
-    <row r="87" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="11" t="s">
         <v>261</v>
       </c>
@@ -8900,7 +8952,7 @@
         <v>-3.2238000000000003E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="11" t="s">
         <v>260</v>
       </c>
@@ -9019,7 +9071,7 @@
         <v>-2.0820000000000001E-3</v>
       </c>
     </row>
-    <row r="89" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="11" t="s">
         <v>259</v>
       </c>
@@ -9138,7 +9190,7 @@
         <v>5.6210000000000001E-3</v>
       </c>
     </row>
-    <row r="90" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="11" t="s">
         <v>258</v>
       </c>
@@ -9257,7 +9309,7 @@
         <v>5.04E-4</v>
       </c>
     </row>
-    <row r="92" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="11" t="s">
         <v>256</v>
       </c>
@@ -9376,12 +9428,12 @@
         <v>-1.823E-3</v>
       </c>
     </row>
-    <row r="94" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B94" s="10" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="95" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="11" t="s">
         <v>255</v>
       </c>
@@ -9500,7 +9552,7 @@
         <v>-2.343E-3</v>
       </c>
     </row>
-    <row r="96" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="11" t="s">
         <v>253</v>
       </c>
@@ -9619,7 +9671,7 @@
         <v>-1.9719999999999998E-3</v>
       </c>
     </row>
-    <row r="97" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="11" t="s">
         <v>251</v>
       </c>
@@ -9738,7 +9790,7 @@
         <v>1.2999999999999999E-4</v>
       </c>
     </row>
-    <row r="98" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="11" t="s">
         <v>249</v>
       </c>
@@ -9857,7 +9909,7 @@
         <v>7.3899999999999997E-4</v>
       </c>
     </row>
-    <row r="99" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="11" t="s">
         <v>247</v>
       </c>
@@ -9976,7 +10028,7 @@
         <v>6.1139999999999996E-3</v>
       </c>
     </row>
-    <row r="100" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="11" t="s">
         <v>245</v>
       </c>
@@ -10095,7 +10147,7 @@
         <v>6.339E-3</v>
       </c>
     </row>
-    <row r="101" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="11" t="s">
         <v>243</v>
       </c>
@@ -10214,7 +10266,7 @@
         <v>-5.0639999999999999E-3</v>
       </c>
     </row>
-    <row r="102" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="11" t="s">
         <v>241</v>
       </c>
@@ -10333,7 +10385,7 @@
         <v>-2.0070000000000001E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="11" t="s">
         <v>239</v>
       </c>
@@ -10452,7 +10504,7 @@
         <v>-1.2541999999999999E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="11" t="s">
         <v>237</v>
       </c>
@@ -10571,7 +10623,7 @@
         <v>9.5589999999999998E-3</v>
       </c>
     </row>
-    <row r="105" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="11" t="s">
         <v>235</v>
       </c>
@@ -10690,7 +10742,7 @@
         <v>2.562E-3</v>
       </c>
     </row>
-    <row r="106" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="11" t="s">
         <v>233</v>
       </c>
@@ -10809,7 +10861,7 @@
         <v>-3.4768E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="11" t="s">
         <v>231</v>
       </c>
@@ -10928,7 +10980,7 @@
         <v>-4.6909999999999999E-3</v>
       </c>
     </row>
-    <row r="108" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="11" t="s">
         <v>229</v>
       </c>
@@ -11047,7 +11099,7 @@
         <v>3.9480000000000001E-3</v>
       </c>
     </row>
-    <row r="109" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="11" t="s">
         <v>227</v>
       </c>
@@ -11166,12 +11218,12 @@
         <v>-5.6499999999999996E-4</v>
       </c>
     </row>
-    <row r="111" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B111" s="10" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="112" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="11" t="s">
         <v>224</v>
       </c>
@@ -11290,7 +11342,7 @@
         <v>2.7342999999999999E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="11" t="s">
         <v>222</v>
       </c>
@@ -11409,7 +11461,7 @@
         <v>2.7820999999999999E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="11" t="s">
         <v>220</v>
       </c>
@@ -11528,7 +11580,7 @@
         <v>9.7493999999999997E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="11" t="s">
         <v>219</v>
       </c>
@@ -11647,7 +11699,7 @@
         <v>9.724E-3</v>
       </c>
     </row>
-    <row r="116" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="11" t="s">
         <v>218</v>
       </c>
@@ -11766,12 +11818,12 @@
         <v>8.5554000000000005E-2</v>
       </c>
     </row>
-    <row r="118" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B118" s="10" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="119" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="11" t="s">
         <v>217</v>
       </c>
@@ -11890,7 +11942,7 @@
         <v>-1.8090000000000001E-3</v>
       </c>
     </row>
-    <row r="120" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="11" t="s">
         <v>216</v>
       </c>
@@ -12009,7 +12061,7 @@
         <v>-1.7240000000000001E-3</v>
       </c>
     </row>
-    <row r="121" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="11" t="s">
         <v>215</v>
       </c>
@@ -12128,7 +12180,7 @@
         <v>1.0460000000000001E-3</v>
       </c>
     </row>
-    <row r="122" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="11" t="s">
         <v>214</v>
       </c>
@@ -12247,7 +12299,7 @@
         <v>1.934E-3</v>
       </c>
     </row>
-    <row r="123" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="11" t="s">
         <v>213</v>
       </c>
@@ -12366,7 +12418,7 @@
         <v>-2.6310000000000001E-3</v>
       </c>
     </row>
-    <row r="124" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="11" t="s">
         <v>212</v>
       </c>
@@ -12485,7 +12537,7 @@
         <v>4.5800000000000002E-4</v>
       </c>
     </row>
-    <row r="125" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="11" t="s">
         <v>211</v>
       </c>
@@ -12604,7 +12656,7 @@
         <v>1.5E-5</v>
       </c>
     </row>
-    <row r="126" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="11" t="s">
         <v>210</v>
       </c>
@@ -12723,7 +12775,7 @@
         <v>-9.4700000000000003E-4</v>
       </c>
     </row>
-    <row r="127" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="11" t="s">
         <v>209</v>
       </c>
@@ -12842,7 +12894,7 @@
         <v>1.7769999999999999E-3</v>
       </c>
     </row>
-    <row r="128" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="11" t="s">
         <v>208</v>
       </c>
@@ -12961,12 +13013,12 @@
         <v>-1.3990000000000001E-3</v>
       </c>
     </row>
-    <row r="130" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B130" s="10" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="131" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="11" t="s">
         <v>207</v>
       </c>
@@ -13085,7 +13137,7 @@
         <v>4.5779999999999996E-3</v>
       </c>
     </row>
-    <row r="132" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="11" t="s">
         <v>206</v>
       </c>
@@ -13204,7 +13256,7 @@
         <v>2.4529999999999999E-3</v>
       </c>
     </row>
-    <row r="133" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="11" t="s">
         <v>205</v>
       </c>
@@ -13323,7 +13375,7 @@
         <v>-3.9060000000000002E-3</v>
       </c>
     </row>
-    <row r="134" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="11" t="s">
         <v>204</v>
       </c>
@@ -13442,7 +13494,7 @@
         <v>-8.1899999999999996E-4</v>
       </c>
     </row>
-    <row r="135" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="11" t="s">
         <v>203</v>
       </c>
@@ -13561,7 +13613,7 @@
         <v>1.384E-3</v>
       </c>
     </row>
-    <row r="136" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="11" t="s">
         <v>202</v>
       </c>
@@ -13680,7 +13732,7 @@
         <v>-9.7400000000000004E-4</v>
       </c>
     </row>
-    <row r="137" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="11" t="s">
         <v>201</v>
       </c>
@@ -13799,7 +13851,7 @@
         <v>4.7860000000000003E-3</v>
       </c>
     </row>
-    <row r="138" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="11" t="s">
         <v>200</v>
       </c>
@@ -13918,7 +13970,7 @@
         <v>6.5649999999999997E-3</v>
       </c>
     </row>
-    <row r="139" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="11" t="s">
         <v>199</v>
       </c>
@@ -14037,7 +14089,7 @@
         <v>8.744E-3</v>
       </c>
     </row>
-    <row r="140" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="11" t="s">
         <v>198</v>
       </c>
@@ -14156,145 +14208,145 @@
         <v>4.3969999999999999E-3</v>
       </c>
     </row>
-    <row r="141" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="142" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B142" s="35" t="s">
+    <row r="141" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="142" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B142" s="36" t="s">
         <v>197</v>
       </c>
-      <c r="C142" s="35"/>
-      <c r="D142" s="35"/>
-      <c r="E142" s="35"/>
-      <c r="F142" s="35"/>
-      <c r="G142" s="35"/>
-      <c r="H142" s="35"/>
-      <c r="I142" s="35"/>
-      <c r="J142" s="35"/>
-      <c r="K142" s="35"/>
-      <c r="L142" s="35"/>
-      <c r="M142" s="35"/>
-      <c r="N142" s="35"/>
-      <c r="O142" s="35"/>
-      <c r="P142" s="35"/>
-      <c r="Q142" s="35"/>
-      <c r="R142" s="35"/>
-      <c r="S142" s="35"/>
-      <c r="T142" s="35"/>
-      <c r="U142" s="35"/>
-      <c r="V142" s="35"/>
-      <c r="W142" s="35"/>
-      <c r="X142" s="35"/>
-      <c r="Y142" s="35"/>
-      <c r="Z142" s="35"/>
-      <c r="AA142" s="35"/>
-      <c r="AB142" s="35"/>
-      <c r="AC142" s="35"/>
-      <c r="AD142" s="35"/>
-      <c r="AE142" s="35"/>
-      <c r="AF142" s="35"/>
-      <c r="AG142" s="35"/>
-      <c r="AH142" s="35"/>
-      <c r="AI142" s="35"/>
-      <c r="AJ142" s="35"/>
-      <c r="AK142" s="35"/>
-      <c r="AL142" s="35"/>
-      <c r="AM142" s="35"/>
-    </row>
-    <row r="143" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C142" s="36"/>
+      <c r="D142" s="36"/>
+      <c r="E142" s="36"/>
+      <c r="F142" s="36"/>
+      <c r="G142" s="36"/>
+      <c r="H142" s="36"/>
+      <c r="I142" s="36"/>
+      <c r="J142" s="36"/>
+      <c r="K142" s="36"/>
+      <c r="L142" s="36"/>
+      <c r="M142" s="36"/>
+      <c r="N142" s="36"/>
+      <c r="O142" s="36"/>
+      <c r="P142" s="36"/>
+      <c r="Q142" s="36"/>
+      <c r="R142" s="36"/>
+      <c r="S142" s="36"/>
+      <c r="T142" s="36"/>
+      <c r="U142" s="36"/>
+      <c r="V142" s="36"/>
+      <c r="W142" s="36"/>
+      <c r="X142" s="36"/>
+      <c r="Y142" s="36"/>
+      <c r="Z142" s="36"/>
+      <c r="AA142" s="36"/>
+      <c r="AB142" s="36"/>
+      <c r="AC142" s="36"/>
+      <c r="AD142" s="36"/>
+      <c r="AE142" s="36"/>
+      <c r="AF142" s="36"/>
+      <c r="AG142" s="36"/>
+      <c r="AH142" s="36"/>
+      <c r="AI142" s="36"/>
+      <c r="AJ142" s="36"/>
+      <c r="AK142" s="36"/>
+      <c r="AL142" s="36"/>
+      <c r="AM142" s="36"/>
+    </row>
+    <row r="143" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B143" s="7" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="144" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B144" s="7" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="145" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B145" s="7" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="146" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B146" s="7" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="147" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B147" s="7" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="148" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B148" s="7" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="149" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B149" s="7" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="150" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B150" s="7" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="151" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B151" s="7" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="152" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B152" s="7" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="153" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B153" s="7" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="154" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B154" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="155" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B155" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="156" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B156" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="157" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B157" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="158" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B158" s="7" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="159" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B159" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="160" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B160" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="161" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B161" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="162" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B162" s="7" t="s">
         <v>18</v>
       </c>
@@ -14309,7 +14361,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AM139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14319,14 +14371,14 @@
       <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" style="6" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="43.5703125" style="6" customWidth="1"/>
-    <col min="3" max="16384" width="8.7109375" style="6"/>
+    <col min="1" max="1" width="19.83203125" style="6" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="43.6640625" style="6" customWidth="1"/>
+    <col min="3" max="16384" width="8.6640625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B1" s="21" t="s">
         <v>181</v>
       </c>
@@ -14439,8 +14491,8 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:39" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:39" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C3" s="23" t="s">
         <v>180</v>
       </c>
@@ -14451,7 +14503,7 @@
       <c r="F3" s="23"/>
       <c r="G3" s="23"/>
     </row>
-    <row r="4" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C4" s="23" t="s">
         <v>178</v>
       </c>
@@ -14464,7 +14516,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="5" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C5" s="23" t="s">
         <v>175</v>
       </c>
@@ -14475,7 +14527,7 @@
       <c r="F5" s="23"/>
       <c r="G5" s="23"/>
     </row>
-    <row r="6" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C6" s="23" t="s">
         <v>173</v>
       </c>
@@ -14486,7 +14538,7 @@
       <c r="F6" s="23"/>
       <c r="G6" s="23"/>
     </row>
-    <row r="10" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
         <v>171</v>
       </c>
@@ -14494,12 +14546,12 @@
         <v>170</v>
       </c>
     </row>
-    <row r="11" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="21" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="12" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="21" t="s">
         <v>168</v>
       </c>
@@ -14615,7 +14667,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="13" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B13" s="19" t="s">
         <v>166</v>
       </c>
@@ -14731,18 +14783,18 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="14" spans="1:39" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:39" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="10" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="17" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="10" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="18" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
         <v>163</v>
       </c>
@@ -14861,7 +14913,7 @@
         <v>1.0206E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
         <v>161</v>
       </c>
@@ -14980,7 +15032,7 @@
         <v>7.5760000000000003E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="11" t="s">
         <v>159</v>
       </c>
@@ -15099,17 +15151,17 @@
         <v>1.0149999999999999E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="10" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="23" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="10" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="24" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
         <v>156</v>
       </c>
@@ -15228,7 +15280,7 @@
         <v>-5.5329999999999997E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
         <v>154</v>
       </c>
@@ -15347,7 +15399,7 @@
         <v>-8.9350000000000002E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
         <v>152</v>
       </c>
@@ -15466,17 +15518,17 @@
         <v>-7.2139999999999999E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="10" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="30" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="10" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="31" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="11" t="s">
         <v>148</v>
       </c>
@@ -15595,7 +15647,7 @@
         <v>-3.1999999999999999E-5</v>
       </c>
     </row>
-    <row r="32" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="11" t="s">
         <v>147</v>
       </c>
@@ -15714,7 +15766,7 @@
         <v>-2.9450000000000001E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="11" t="s">
         <v>146</v>
       </c>
@@ -15833,7 +15885,7 @@
         <v>-8.2909999999999998E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="11" t="s">
         <v>145</v>
       </c>
@@ -15952,7 +16004,7 @@
         <v>-1.1093E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="11" t="s">
         <v>144</v>
       </c>
@@ -16071,7 +16123,7 @@
         <v>-6.5640000000000004E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="11" t="s">
         <v>143</v>
       </c>
@@ -16190,7 +16242,7 @@
         <v>-1.9772000000000001E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="11" t="s">
         <v>142</v>
       </c>
@@ -16309,7 +16361,7 @@
         <v>-4.35E-4</v>
       </c>
     </row>
-    <row r="38" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="11" t="s">
         <v>141</v>
       </c>
@@ -16428,7 +16480,7 @@
         <v>-1.0253E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="11" t="s">
         <v>140</v>
       </c>
@@ -16547,7 +16599,7 @@
         <v>1.6978E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="11" t="s">
         <v>139</v>
       </c>
@@ -16666,7 +16718,7 @@
         <v>1.7672E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="11" t="s">
         <v>137</v>
       </c>
@@ -16785,12 +16837,12 @@
         <v>5.1929999999999997E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B43" s="10" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="44" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="11" t="s">
         <v>135</v>
       </c>
@@ -16909,7 +16961,7 @@
         <v>-6.9439999999999997E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="11" t="s">
         <v>134</v>
       </c>
@@ -17028,7 +17080,7 @@
         <v>-1.3974E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="11" t="s">
         <v>133</v>
       </c>
@@ -17147,7 +17199,7 @@
         <v>1.438E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="11" t="s">
         <v>132</v>
       </c>
@@ -17266,7 +17318,7 @@
         <v>9.7310000000000001E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="11" t="s">
         <v>131</v>
       </c>
@@ -17385,7 +17437,7 @@
         <v>1.7788999999999999E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="11" t="s">
         <v>129</v>
       </c>
@@ -17504,12 +17556,12 @@
         <v>4.705E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B51" s="10" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="52" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="11" t="s">
         <v>127</v>
       </c>
@@ -17628,7 +17680,7 @@
         <v>-1.0187E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="11" t="s">
         <v>126</v>
       </c>
@@ -17747,7 +17799,7 @@
         <v>2.7700000000000001E-4</v>
       </c>
     </row>
-    <row r="54" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="11" t="s">
         <v>125</v>
       </c>
@@ -17866,7 +17918,7 @@
         <v>2.6340000000000001E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="11" t="s">
         <v>123</v>
       </c>
@@ -17985,7 +18037,7 @@
         <v>-4.4060000000000002E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="11" t="s">
         <v>122</v>
       </c>
@@ -18104,7 +18156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="11" t="s">
         <v>120</v>
       </c>
@@ -18223,12 +18275,12 @@
         <v>5.3270000000000001E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B60" s="10" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="61" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="11" t="s">
         <v>117</v>
       </c>
@@ -18347,7 +18399,7 @@
         <v>-6.8739999999999999E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="11" t="s">
         <v>116</v>
       </c>
@@ -18466,7 +18518,7 @@
         <v>-3.385E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="11" t="s">
         <v>115</v>
       </c>
@@ -18585,7 +18637,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="11" t="s">
         <v>114</v>
       </c>
@@ -18704,7 +18756,7 @@
         <v>-1.1093E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="11" t="s">
         <v>113</v>
       </c>
@@ -18823,7 +18875,7 @@
         <v>7.0070000000000002E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="11" t="s">
         <v>112</v>
       </c>
@@ -18942,7 +18994,7 @@
         <v>-1.9772000000000001E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="11" t="s">
         <v>111</v>
       </c>
@@ -19061,7 +19113,7 @@
         <v>-4.35E-4</v>
       </c>
     </row>
-    <row r="68" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="11" t="s">
         <v>110</v>
       </c>
@@ -19180,7 +19232,7 @@
         <v>-1.0253E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="11" t="s">
         <v>109</v>
       </c>
@@ -19299,7 +19351,7 @@
         <v>1.6978E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="11" t="s">
         <v>108</v>
       </c>
@@ -19418,7 +19470,7 @@
         <v>1.5339E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="11" t="s">
         <v>107</v>
       </c>
@@ -19537,7 +19589,7 @@
         <v>4.561E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="11" t="s">
         <v>105</v>
       </c>
@@ -19656,12 +19708,12 @@
         <v>1.1249999999999999E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B75" s="10" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="76" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="11" t="s">
         <v>102</v>
       </c>
@@ -19780,7 +19832,7 @@
         <v>-6.5789999999999998E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="11" t="s">
         <v>100</v>
       </c>
@@ -19899,7 +19951,7 @@
         <v>-5.6740000000000002E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="11" t="s">
         <v>98</v>
       </c>
@@ -20018,7 +20070,7 @@
         <v>-3.9999999999999998E-6</v>
       </c>
     </row>
-    <row r="79" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="11" t="s">
         <v>96</v>
       </c>
@@ -20137,7 +20189,7 @@
         <v>-1.3679E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="11" t="s">
         <v>94</v>
       </c>
@@ -20256,7 +20308,7 @@
         <v>2.9090000000000001E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="11" t="s">
         <v>92</v>
       </c>
@@ -20375,7 +20427,7 @@
         <v>-2.2335000000000001E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="11" t="s">
         <v>90</v>
       </c>
@@ -20494,7 +20546,7 @@
         <v>-3.0479999999999999E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="11" t="s">
         <v>88</v>
       </c>
@@ -20613,7 +20665,7 @@
         <v>-1.2841E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="11" t="s">
         <v>86</v>
       </c>
@@ -20732,7 +20784,7 @@
         <v>1.4319E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="11" t="s">
         <v>84</v>
       </c>
@@ -20851,7 +20903,7 @@
         <v>1.4466E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="11" t="s">
         <v>82</v>
       </c>
@@ -20970,12 +21022,12 @@
         <v>2.8630000000000001E-3</v>
       </c>
     </row>
-    <row r="88" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B88" s="10" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="89" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="11" t="s">
         <v>79</v>
       </c>
@@ -21094,7 +21146,7 @@
         <v>4.3639999999999998E-3</v>
       </c>
     </row>
-    <row r="90" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="11" t="s">
         <v>77</v>
       </c>
@@ -21213,7 +21265,7 @@
         <v>6.2715999999999994E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="11" t="s">
         <v>75</v>
       </c>
@@ -21332,7 +21384,7 @@
         <v>4.8741E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="11" t="s">
         <v>73</v>
       </c>
@@ -21451,12 +21503,12 @@
         <v>4.7280999999999997E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B94" s="10" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="95" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="11" t="s">
         <v>70</v>
       </c>
@@ -21575,7 +21627,7 @@
         <v>-1.8090000000000001E-3</v>
       </c>
     </row>
-    <row r="96" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="11" t="s">
         <v>69</v>
       </c>
@@ -21694,7 +21746,7 @@
         <v>-1.7240000000000001E-3</v>
       </c>
     </row>
-    <row r="97" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="11" t="s">
         <v>68</v>
       </c>
@@ -21813,7 +21865,7 @@
         <v>1.0460000000000001E-3</v>
       </c>
     </row>
-    <row r="98" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="11" t="s">
         <v>67</v>
       </c>
@@ -21932,7 +21984,7 @@
         <v>1.934E-3</v>
       </c>
     </row>
-    <row r="99" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="11" t="s">
         <v>66</v>
       </c>
@@ -22051,7 +22103,7 @@
         <v>-2.6310000000000001E-3</v>
       </c>
     </row>
-    <row r="100" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="11" t="s">
         <v>65</v>
       </c>
@@ -22170,7 +22222,7 @@
         <v>4.5800000000000002E-4</v>
       </c>
     </row>
-    <row r="101" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="11" t="s">
         <v>64</v>
       </c>
@@ -22289,7 +22341,7 @@
         <v>1.5E-5</v>
       </c>
     </row>
-    <row r="102" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="11" t="s">
         <v>63</v>
       </c>
@@ -22408,7 +22460,7 @@
         <v>-9.4700000000000003E-4</v>
       </c>
     </row>
-    <row r="103" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="11" t="s">
         <v>62</v>
       </c>
@@ -22527,7 +22579,7 @@
         <v>1.7769999999999999E-3</v>
       </c>
     </row>
-    <row r="104" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="11" t="s">
         <v>61</v>
       </c>
@@ -22646,12 +22698,12 @@
         <v>-1.3990000000000001E-3</v>
       </c>
     </row>
-    <row r="106" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B106" s="10" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="107" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="11" t="s">
         <v>59</v>
       </c>
@@ -22770,7 +22822,7 @@
         <v>4.5779999999999996E-3</v>
       </c>
     </row>
-    <row r="108" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="11" t="s">
         <v>57</v>
       </c>
@@ -22889,7 +22941,7 @@
         <v>2.4529999999999999E-3</v>
       </c>
     </row>
-    <row r="109" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="11" t="s">
         <v>55</v>
       </c>
@@ -23008,7 +23060,7 @@
         <v>-3.9060000000000002E-3</v>
       </c>
     </row>
-    <row r="110" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="11" t="s">
         <v>53</v>
       </c>
@@ -23127,7 +23179,7 @@
         <v>-8.1899999999999996E-4</v>
       </c>
     </row>
-    <row r="111" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="11" t="s">
         <v>51</v>
       </c>
@@ -23246,7 +23298,7 @@
         <v>1.384E-3</v>
       </c>
     </row>
-    <row r="112" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="11" t="s">
         <v>49</v>
       </c>
@@ -23365,7 +23417,7 @@
         <v>-9.7400000000000004E-4</v>
       </c>
     </row>
-    <row r="113" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="11" t="s">
         <v>47</v>
       </c>
@@ -23484,7 +23536,7 @@
         <v>4.7860000000000003E-3</v>
       </c>
     </row>
-    <row r="114" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="11" t="s">
         <v>45</v>
       </c>
@@ -23603,7 +23655,7 @@
         <v>6.5649999999999997E-3</v>
       </c>
     </row>
-    <row r="115" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="11" t="s">
         <v>43</v>
       </c>
@@ -23722,7 +23774,7 @@
         <v>8.744E-3</v>
       </c>
     </row>
-    <row r="116" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="11" t="s">
         <v>41</v>
       </c>
@@ -23841,150 +23893,150 @@
         <v>4.3969999999999999E-3</v>
       </c>
     </row>
-    <row r="117" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="118" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B118" s="35" t="s">
+    <row r="117" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="118" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B118" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="C118" s="35"/>
-      <c r="D118" s="35"/>
-      <c r="E118" s="35"/>
-      <c r="F118" s="35"/>
-      <c r="G118" s="35"/>
-      <c r="H118" s="35"/>
-      <c r="I118" s="35"/>
-      <c r="J118" s="35"/>
-      <c r="K118" s="35"/>
-      <c r="L118" s="35"/>
-      <c r="M118" s="35"/>
-      <c r="N118" s="35"/>
-      <c r="O118" s="35"/>
-      <c r="P118" s="35"/>
-      <c r="Q118" s="35"/>
-      <c r="R118" s="35"/>
-      <c r="S118" s="35"/>
-      <c r="T118" s="35"/>
-      <c r="U118" s="35"/>
-      <c r="V118" s="35"/>
-      <c r="W118" s="35"/>
-      <c r="X118" s="35"/>
-      <c r="Y118" s="35"/>
-      <c r="Z118" s="35"/>
-      <c r="AA118" s="35"/>
-      <c r="AB118" s="35"/>
-      <c r="AC118" s="35"/>
-      <c r="AD118" s="35"/>
-      <c r="AE118" s="35"/>
-      <c r="AF118" s="35"/>
-      <c r="AG118" s="35"/>
-      <c r="AH118" s="35"/>
-      <c r="AI118" s="35"/>
-      <c r="AJ118" s="35"/>
-      <c r="AK118" s="35"/>
-      <c r="AL118" s="35"/>
-      <c r="AM118" s="35"/>
-    </row>
-    <row r="119" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C118" s="36"/>
+      <c r="D118" s="36"/>
+      <c r="E118" s="36"/>
+      <c r="F118" s="36"/>
+      <c r="G118" s="36"/>
+      <c r="H118" s="36"/>
+      <c r="I118" s="36"/>
+      <c r="J118" s="36"/>
+      <c r="K118" s="36"/>
+      <c r="L118" s="36"/>
+      <c r="M118" s="36"/>
+      <c r="N118" s="36"/>
+      <c r="O118" s="36"/>
+      <c r="P118" s="36"/>
+      <c r="Q118" s="36"/>
+      <c r="R118" s="36"/>
+      <c r="S118" s="36"/>
+      <c r="T118" s="36"/>
+      <c r="U118" s="36"/>
+      <c r="V118" s="36"/>
+      <c r="W118" s="36"/>
+      <c r="X118" s="36"/>
+      <c r="Y118" s="36"/>
+      <c r="Z118" s="36"/>
+      <c r="AA118" s="36"/>
+      <c r="AB118" s="36"/>
+      <c r="AC118" s="36"/>
+      <c r="AD118" s="36"/>
+      <c r="AE118" s="36"/>
+      <c r="AF118" s="36"/>
+      <c r="AG118" s="36"/>
+      <c r="AH118" s="36"/>
+      <c r="AI118" s="36"/>
+      <c r="AJ118" s="36"/>
+      <c r="AK118" s="36"/>
+      <c r="AL118" s="36"/>
+      <c r="AM118" s="36"/>
+    </row>
+    <row r="119" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B119" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="120" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B120" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="121" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B121" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="122" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B122" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="123" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B123" s="7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="124" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B124" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="125" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B125" s="7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="126" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B126" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="127" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B127" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="128" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B128" s="7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="129" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B129" s="7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="130" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B130" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="131" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B131" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="132" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B132" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="133" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B133" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="134" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B134" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="135" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B135" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="136" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B136" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="137" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B137" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="138" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B138" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="139" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B139" s="7" t="s">
         <v>18</v>
       </c>
@@ -23999,26 +24051,26 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AK67"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A1" s="30" t="s">
         <v>182</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B2">
         <v>2015</v>
       </c>
@@ -24128,7 +24180,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>345</v>
       </c>
@@ -24277,7 +24329,7 @@
         <v>2.0387429639167166E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>183</v>
       </c>
@@ -24286,19 +24338,19 @@
         <v>2.1866115765726366E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A8" s="30" t="s">
         <v>184</v>
       </c>
       <c r="B8" s="31"/>
       <c r="C8" s="31"/>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B12" s="27" t="s">
         <v>344</v>
       </c>
@@ -24306,7 +24358,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>340</v>
       </c>
@@ -24314,7 +24366,7 @@
         <v>0.997</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>341</v>
       </c>
@@ -24322,7 +24374,7 @@
         <v>0.995</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>342</v>
       </c>
@@ -24330,12 +24382,12 @@
         <v>0.96599999999999997</v>
       </c>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B18">
         <v>2015</v>
       </c>
@@ -24445,7 +24497,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>340</v>
       </c>
@@ -24590,7 +24642,7 @@
         <v>106.80688818099999</v>
       </c>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>341</v>
       </c>
@@ -24735,7 +24787,7 @@
         <v>40.991097584999999</v>
       </c>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>342</v>
       </c>
@@ -24880,12 +24932,12 @@
         <v>4.4407329119999996</v>
       </c>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B24">
         <v>2015</v>
       </c>
@@ -24995,7 +25047,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>340</v>
       </c>
@@ -25140,7 +25192,7 @@
         <v>1.1215938190000116</v>
       </c>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>341</v>
       </c>
@@ -25285,7 +25337,7 @@
         <v>0.52974641499999819</v>
       </c>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>342</v>
       </c>
@@ -25430,12 +25482,12 @@
         <v>0.12269708800000068</v>
       </c>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B30">
         <v>2015</v>
       </c>
@@ -25545,7 +25597,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>340</v>
       </c>
@@ -25690,7 +25742,7 @@
         <v>1.0501137502473678E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>341</v>
       </c>
@@ -25835,7 +25887,7 @@
         <v>1.2923450363862663E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>342</v>
       </c>
@@ -25980,15 +26032,15 @@
         <v>2.7629918401181404E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.2">
       <c r="C34" s="25"/>
     </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>340</v>
       </c>
@@ -25997,7 +26049,7 @@
         <v>1.143000484613816E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>341</v>
       </c>
@@ -26006,7 +26058,7 @@
         <v>1.5514513735396921E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>342</v>
       </c>
@@ -26015,12 +26067,12 @@
         <v>2.7312273593190856E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>352</v>
       </c>
@@ -26029,34 +26081,34 @@
         <v>1.3254110935573082E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A44" s="30" t="s">
         <v>356</v>
       </c>
       <c r="B44" s="31"/>
       <c r="C44" s="31"/>
     </row>
-    <row r="46" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="47" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="48" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>361</v>
       </c>
@@ -26065,7 +26117,7 @@
         <v>0.97813388423427361</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>362</v>
       </c>
@@ -26074,12 +26126,12 @@
         <v>0.98674588906442695</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>3</v>
       </c>
@@ -26088,7 +26140,7 @@
         <v>5.2631578947368418E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>4</v>
       </c>
@@ -26097,7 +26149,7 @@
         <v>6.3157894736842107E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>6</v>
       </c>
@@ -26106,7 +26158,7 @@
         <v>0.1095</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>7</v>
       </c>
@@ -26115,7 +26167,7 @@
         <v>7.3891625615763554E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>8</v>
       </c>
@@ -26124,12 +26176,12 @@
         <v>6.4935064935064929E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
         <v>361</v>
       </c>
@@ -26137,7 +26189,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>3</v>
       </c>
@@ -26150,7 +26202,7 @@
         <v>6.5188105096858712E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>4</v>
       </c>
@@ -26163,7 +26215,7 @@
         <v>7.5574903929115839E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>6</v>
       </c>
@@ -26176,7 +26228,7 @@
         <v>0.12130278578812782</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>7</v>
       </c>
@@ -26189,7 +26241,7 @@
         <v>8.6166368748215469E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>8</v>
       </c>
@@ -26209,20 +26261,20 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" customWidth="1"/>
+    <col min="4" max="4" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" s="27" t="s">
         <v>353</v>
       </c>
@@ -26233,7 +26285,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -26250,7 +26302,7 @@
         <v>7.3346846514898659E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -26267,7 +26319,7 @@
         <v>8.3642992664733129E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -26281,7 +26333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -26298,7 +26350,7 @@
         <v>0.12897177608937932</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -26315,7 +26367,7 @@
         <v>9.4142018541657921E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -26332,7 +26384,7 @@
         <v>8.5381303053666202E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D8" s="4"/>
     </row>
   </sheetData>
@@ -26341,24 +26393,26 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" customWidth="1"/>
+    <col min="4" max="4" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A1" s="35" t="s">
         <v>381</v>
       </c>
       <c r="B1" s="27" t="s">
@@ -26371,37 +26425,37 @@
         <v>355</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="34">
-        <v>4.5699999999999998E-2</v>
+        <v>0.05</v>
       </c>
       <c r="C2" s="4">
         <f>B2</f>
-        <v>4.5699999999999998E-2</v>
+        <v>0.05</v>
       </c>
       <c r="D2" s="34">
-        <v>4.7800000000000002E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="34">
-        <v>5.7000000000000002E-2</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="C3" s="4">
         <f>B3</f>
-        <v>5.7000000000000002E-2</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="D3" s="34">
         <v>6.2E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -26415,7 +26469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -26430,7 +26484,7 @@
         <v>0.112</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -26445,22 +26499,22 @@
         <v>7.1199999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="34">
-        <v>6.7500000000000004E-2</v>
+        <v>7.3999999999999996E-2</v>
       </c>
       <c r="C7" s="4">
         <f>B7</f>
-        <v>6.7500000000000004E-2</v>
+        <v>7.3999999999999996E-2</v>
       </c>
       <c r="D7" s="34">
-        <v>6.9500000000000006E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6.3500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D8" s="4"/>
     </row>
   </sheetData>

--- a/InputData/bldgs/SoCEUtiNTY/Share of Cpnt E Use that is New This Year.xlsx
+++ b/InputData/bldgs/SoCEUtiNTY/Share of Cpnt E Use that is New This Year.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathaniyer/Library/Containers/com.microsoft.Excel/Data/state-eps-data-repository/WI/bldgs/SoCEUtiNTY/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/template_state/bldgs/soceutinty/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{82402864-5730-E144-8742-6AD4961B9B56}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{078C7DD8-4A6F-4F49-8C92-3717B88CE898}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
-    <sheet name="Component Lifetimes" sheetId="3" r:id="rId2"/>
-    <sheet name="AEO T4" sheetId="6" r:id="rId3"/>
-    <sheet name="AEO T5" sheetId="5" r:id="rId4"/>
-    <sheet name="Calculations" sheetId="4" r:id="rId5"/>
-    <sheet name="Pre-Calibration Calculated Vals" sheetId="7" r:id="rId6"/>
-    <sheet name="SoCEUtiNTY" sheetId="2" r:id="rId7"/>
+    <sheet name="Calibration Helper" sheetId="8" r:id="rId2"/>
+    <sheet name="Component Lifetimes" sheetId="3" r:id="rId3"/>
+    <sheet name="AEO T4" sheetId="6" r:id="rId4"/>
+    <sheet name="AEO T5" sheetId="5" r:id="rId5"/>
+    <sheet name="Calculations" sheetId="4" r:id="rId6"/>
+    <sheet name="Pre-Calibration Calculated Vals" sheetId="7" r:id="rId7"/>
+    <sheet name="SoCEUtiNTY" sheetId="2" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="412">
   <si>
     <t>SoCEUtiNTY Share of Components Energy Use that is New This Year</t>
   </si>
@@ -1185,7 +1186,94 @@
     <t>Share of New Components Energy Use (dimensionless)</t>
   </si>
   <si>
-    <t>Wisconsin</t>
+    <t>For States</t>
+  </si>
+  <si>
+    <t>The default is 1/component lifetime.</t>
+  </si>
+  <si>
+    <t>To calibrate further, see the SoCEUtiNTY Helper Sheet</t>
+  </si>
+  <si>
+    <t>Paste from default run (Retiring Components Potential Energy Use Summed Across Fuels)</t>
+  </si>
+  <si>
+    <t>Time (Time)</t>
+  </si>
+  <si>
+    <t>Retiring Components Potential Energy Use Summed Across Fuels[urban residential,heating] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Retiring Components Potential Energy Use Summed Across Fuels[urban residential,cooling and ventilation] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Retiring Components Potential Energy Use Summed Across Fuels[urban residential,envelope] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Retiring Components Potential Energy Use Summed Across Fuels[urban residential,lighting] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Retiring Components Potential Energy Use Summed Across Fuels[urban residential,appliances] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Retiring Components Potential Energy Use Summed Across Fuels[urban residential,other component] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Retiring Components Potential Energy Use Summed Across Fuels[rural residential,heating] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Retiring Components Potential Energy Use Summed Across Fuels[rural residential,cooling and ventilation] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Retiring Components Potential Energy Use Summed Across Fuels[rural residential,envelope] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Retiring Components Potential Energy Use Summed Across Fuels[rural residential,lighting] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Retiring Components Potential Energy Use Summed Across Fuels[rural residential,appliances] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Retiring Components Potential Energy Use Summed Across Fuels[rural residential,other component] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Retiring Components Potential Energy Use Summed Across Fuels[commercial,heating] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Retiring Components Potential Energy Use Summed Across Fuels[commercial,cooling and ventilation] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Retiring Components Potential Energy Use Summed Across Fuels[commercial,envelope] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Retiring Components Potential Energy Use Summed Across Fuels[commercial,lighting] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Retiring Components Potential Energy Use Summed Across Fuels[commercial,appliances] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Retiring Components Potential Energy Use Summed Across Fuels[commercial,other component] : MostRecentRun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ratio Change </t>
+  </si>
+  <si>
+    <t>Calculated yearly change percentage</t>
+  </si>
+  <si>
+    <t>For states</t>
+  </si>
+  <si>
+    <t>Calibrated outputs</t>
+  </si>
+  <si>
+    <t>Run the model, paste the output from Retiring Components Potential Energy Use Summed Across Fuels in the proper box in Calibration Helper</t>
+  </si>
+  <si>
+    <t>Replace the csv exporter tab with the new calibrated outputs</t>
+  </si>
+  <si>
+    <t>When Calibrating, place the current values here (default is 1/component lifetime)</t>
   </si>
 </sst>
 </file>
@@ -1198,7 +1286,7 @@
     <numFmt numFmtId="166" formatCode="#,##0.0"/>
     <numFmt numFmtId="167" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1260,6 +1348,14 @@
     <font>
       <i/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1358,7 +1454,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1425,13 +1521,19 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Body: normal cell" xfId="5" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1778,24 +1880,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="52" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1" s="42">
+        <v>44307</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1803,57 +1907,57 @@
         <v>365</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" s="32">
         <v>2017</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B10" s="30" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B12" s="32">
         <v>2017</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>338</v>
       </c>
@@ -1966,6 +2070,31 @@
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>379</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>410</v>
       </c>
     </row>
   </sheetData>
@@ -1975,10 +2104,6847 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E43CEA8-DE5D-E34C-97F3-7FF52A9CD9A8}">
+  <dimension ref="A2:AG141"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="105.33203125" customWidth="1"/>
+    <col min="2" max="2" width="16.5" customWidth="1"/>
+    <col min="3" max="3" width="14.1640625" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:33" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="37"/>
+    </row>
+    <row r="3" spans="1:33" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="37" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>353</v>
+      </c>
+      <c r="D4" t="s">
+        <v>354</v>
+      </c>
+      <c r="E4" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3">
+        <v>19</v>
+      </c>
+      <c r="C5" s="38">
+        <v>5.2631578947368418E-2</v>
+      </c>
+      <c r="D5" s="38">
+        <v>5.2631578947368418E-2</v>
+      </c>
+      <c r="E5" s="38">
+        <v>5.2631578947368418E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3">
+        <v>15.833333333333334</v>
+      </c>
+      <c r="C6" s="38">
+        <v>6.25E-2</v>
+      </c>
+      <c r="D6" s="38">
+        <v>6.25E-2</v>
+      </c>
+      <c r="E6" s="38">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3">
+        <v>51.81818181818182</v>
+      </c>
+      <c r="C7" s="38">
+        <v>0</v>
+      </c>
+      <c r="D7" s="38">
+        <v>0</v>
+      </c>
+      <c r="E7" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3">
+        <v>9.1324200913242013</v>
+      </c>
+      <c r="C8" s="38">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="D8" s="38">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="E8" s="38">
+        <v>0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3">
+        <v>13.533333333333333</v>
+      </c>
+      <c r="C9" s="38">
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="D9" s="38">
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="E9" s="38">
+        <v>7.1428571428571425E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3">
+        <v>15.4</v>
+      </c>
+      <c r="C10" s="38">
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="D10" s="38">
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="E10" s="38">
+        <v>6.6666666666666666E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="37" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A15" s="39" t="s">
+        <v>386</v>
+      </c>
+      <c r="B15" s="39">
+        <v>2019</v>
+      </c>
+      <c r="C15" s="39">
+        <v>2020</v>
+      </c>
+      <c r="D15" s="39">
+        <v>2021</v>
+      </c>
+      <c r="E15" s="39">
+        <v>2022</v>
+      </c>
+      <c r="F15" s="39">
+        <v>2023</v>
+      </c>
+      <c r="G15" s="39">
+        <v>2024</v>
+      </c>
+      <c r="H15" s="39">
+        <v>2025</v>
+      </c>
+      <c r="I15" s="39">
+        <v>2026</v>
+      </c>
+      <c r="J15" s="39">
+        <v>2027</v>
+      </c>
+      <c r="K15" s="39">
+        <v>2028</v>
+      </c>
+      <c r="L15" s="39">
+        <v>2029</v>
+      </c>
+      <c r="M15" s="39">
+        <v>2030</v>
+      </c>
+      <c r="N15" s="39">
+        <v>2031</v>
+      </c>
+      <c r="O15" s="39">
+        <v>2032</v>
+      </c>
+      <c r="P15" s="39">
+        <v>2033</v>
+      </c>
+      <c r="Q15" s="39">
+        <v>2034</v>
+      </c>
+      <c r="R15" s="39">
+        <v>2035</v>
+      </c>
+      <c r="S15" s="39">
+        <v>2036</v>
+      </c>
+      <c r="T15" s="39">
+        <v>2037</v>
+      </c>
+      <c r="U15" s="39">
+        <v>2038</v>
+      </c>
+      <c r="V15" s="39">
+        <v>2039</v>
+      </c>
+      <c r="W15" s="39">
+        <v>2040</v>
+      </c>
+      <c r="X15" s="39">
+        <v>2041</v>
+      </c>
+      <c r="Y15" s="39">
+        <v>2042</v>
+      </c>
+      <c r="Z15" s="39">
+        <v>2043</v>
+      </c>
+      <c r="AA15" s="39">
+        <v>2044</v>
+      </c>
+      <c r="AB15" s="39">
+        <v>2045</v>
+      </c>
+      <c r="AC15" s="39">
+        <v>2046</v>
+      </c>
+      <c r="AD15" s="39">
+        <v>2047</v>
+      </c>
+      <c r="AE15" s="39">
+        <v>2048</v>
+      </c>
+      <c r="AF15" s="39">
+        <v>2049</v>
+      </c>
+      <c r="AG15" s="39">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A16" s="38" t="s">
+        <v>387</v>
+      </c>
+      <c r="B16" s="38">
+        <v>6.6522199999999998</v>
+      </c>
+      <c r="C16" s="38">
+        <v>6.6522199999999998</v>
+      </c>
+      <c r="D16" s="38">
+        <v>6.6522199999999998</v>
+      </c>
+      <c r="E16" s="38">
+        <v>6.6522199999999998</v>
+      </c>
+      <c r="F16" s="38">
+        <v>6.6522199999999998</v>
+      </c>
+      <c r="G16" s="38">
+        <v>6.6522199999999998</v>
+      </c>
+      <c r="H16" s="38">
+        <v>6.6522199999999998</v>
+      </c>
+      <c r="I16" s="38">
+        <v>6.6522199999999998</v>
+      </c>
+      <c r="J16" s="38">
+        <v>6.6522199999999998</v>
+      </c>
+      <c r="K16" s="38">
+        <v>6.6522199999999998</v>
+      </c>
+      <c r="L16" s="38">
+        <v>6.6522199999999998</v>
+      </c>
+      <c r="M16" s="38">
+        <v>6.6522199999999998</v>
+      </c>
+      <c r="N16" s="38">
+        <v>6.6522199999999998</v>
+      </c>
+      <c r="O16" s="38">
+        <v>6.6522199999999998</v>
+      </c>
+      <c r="P16" s="38">
+        <v>6.6522199999999998</v>
+      </c>
+      <c r="Q16" s="38">
+        <v>6.6522199999999998</v>
+      </c>
+      <c r="R16" s="38">
+        <v>6.6522199999999998</v>
+      </c>
+      <c r="S16" s="38">
+        <v>6.6522199999999998</v>
+      </c>
+      <c r="T16" s="38">
+        <v>6.6522199999999998</v>
+      </c>
+      <c r="U16" s="38">
+        <v>6.4903700000000004</v>
+      </c>
+      <c r="V16" s="38">
+        <v>6.5468299999999999</v>
+      </c>
+      <c r="W16" s="38">
+        <v>6.59368</v>
+      </c>
+      <c r="X16" s="38">
+        <v>6.6323999999999996</v>
+      </c>
+      <c r="Y16" s="38">
+        <v>6.6633100000000001</v>
+      </c>
+      <c r="Z16" s="38">
+        <v>6.68649</v>
+      </c>
+      <c r="AA16" s="38">
+        <v>6.7038700000000002</v>
+      </c>
+      <c r="AB16" s="38">
+        <v>6.7176400000000003</v>
+      </c>
+      <c r="AC16" s="38">
+        <v>6.7318499999999997</v>
+      </c>
+      <c r="AD16" s="38">
+        <v>6.7423099999999998</v>
+      </c>
+      <c r="AE16" s="38">
+        <v>6.7513699999999996</v>
+      </c>
+      <c r="AF16" s="38">
+        <v>6.7578699999999996</v>
+      </c>
+      <c r="AG16" s="38">
+        <v>6.7690000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A17" s="38" t="s">
+        <v>388</v>
+      </c>
+      <c r="B17" s="38">
+        <v>175.75</v>
+      </c>
+      <c r="C17" s="38">
+        <v>175.75</v>
+      </c>
+      <c r="D17" s="38">
+        <v>175.75</v>
+      </c>
+      <c r="E17" s="38">
+        <v>175.75</v>
+      </c>
+      <c r="F17" s="38">
+        <v>175.75</v>
+      </c>
+      <c r="G17" s="38">
+        <v>175.75</v>
+      </c>
+      <c r="H17" s="38">
+        <v>175.75</v>
+      </c>
+      <c r="I17" s="38">
+        <v>175.75</v>
+      </c>
+      <c r="J17" s="38">
+        <v>175.75</v>
+      </c>
+      <c r="K17" s="38">
+        <v>175.75</v>
+      </c>
+      <c r="L17" s="38">
+        <v>175.75</v>
+      </c>
+      <c r="M17" s="38">
+        <v>175.75</v>
+      </c>
+      <c r="N17" s="38">
+        <v>175.75</v>
+      </c>
+      <c r="O17" s="38">
+        <v>175.75</v>
+      </c>
+      <c r="P17" s="38">
+        <v>175.75</v>
+      </c>
+      <c r="Q17" s="38">
+        <v>175.75</v>
+      </c>
+      <c r="R17" s="38">
+        <v>165.77600000000001</v>
+      </c>
+      <c r="S17" s="38">
+        <v>157.76400000000001</v>
+      </c>
+      <c r="T17" s="38">
+        <v>150.428</v>
+      </c>
+      <c r="U17" s="38">
+        <v>143.56200000000001</v>
+      </c>
+      <c r="V17" s="38">
+        <v>137.37899999999999</v>
+      </c>
+      <c r="W17" s="38">
+        <v>131.86799999999999</v>
+      </c>
+      <c r="X17" s="38">
+        <v>126.739</v>
+      </c>
+      <c r="Y17" s="38">
+        <v>122.735</v>
+      </c>
+      <c r="Z17" s="38">
+        <v>119.38200000000001</v>
+      </c>
+      <c r="AA17" s="38">
+        <v>116.664</v>
+      </c>
+      <c r="AB17" s="38">
+        <v>114.559</v>
+      </c>
+      <c r="AC17" s="38">
+        <v>112.959</v>
+      </c>
+      <c r="AD17" s="38">
+        <v>111.419</v>
+      </c>
+      <c r="AE17" s="38">
+        <v>110.40900000000001</v>
+      </c>
+      <c r="AF17" s="38">
+        <v>109.538</v>
+      </c>
+      <c r="AG17" s="38">
+        <v>108.747</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A18" s="38" t="s">
+        <v>389</v>
+      </c>
+      <c r="B18" s="38">
+        <v>0</v>
+      </c>
+      <c r="C18" s="38">
+        <v>0</v>
+      </c>
+      <c r="D18" s="38">
+        <v>0</v>
+      </c>
+      <c r="E18" s="38">
+        <v>0</v>
+      </c>
+      <c r="F18" s="38">
+        <v>0</v>
+      </c>
+      <c r="G18" s="38">
+        <v>0</v>
+      </c>
+      <c r="H18" s="38">
+        <v>0</v>
+      </c>
+      <c r="I18" s="38">
+        <v>0</v>
+      </c>
+      <c r="J18" s="38">
+        <v>0</v>
+      </c>
+      <c r="K18" s="38">
+        <v>0</v>
+      </c>
+      <c r="L18" s="38">
+        <v>0</v>
+      </c>
+      <c r="M18" s="38">
+        <v>0</v>
+      </c>
+      <c r="N18" s="38">
+        <v>0</v>
+      </c>
+      <c r="O18" s="38">
+        <v>0</v>
+      </c>
+      <c r="P18" s="38">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="38">
+        <v>0</v>
+      </c>
+      <c r="R18" s="38">
+        <v>0</v>
+      </c>
+      <c r="S18" s="38">
+        <v>0</v>
+      </c>
+      <c r="T18" s="38">
+        <v>0</v>
+      </c>
+      <c r="U18" s="38">
+        <v>0</v>
+      </c>
+      <c r="V18" s="38">
+        <v>0</v>
+      </c>
+      <c r="W18" s="38">
+        <v>0</v>
+      </c>
+      <c r="X18" s="38">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="38">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="38">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="38">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="38">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="38">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="38">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="38">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="38">
+        <v>0</v>
+      </c>
+      <c r="AG18" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A19" s="38" t="s">
+        <v>390</v>
+      </c>
+      <c r="B19" s="38">
+        <v>428.26400000000001</v>
+      </c>
+      <c r="C19" s="38">
+        <v>428.26400000000001</v>
+      </c>
+      <c r="D19" s="38">
+        <v>428.26400000000001</v>
+      </c>
+      <c r="E19" s="38">
+        <v>428.26400000000001</v>
+      </c>
+      <c r="F19" s="38">
+        <v>428.26400000000001</v>
+      </c>
+      <c r="G19" s="38">
+        <v>428.26400000000001</v>
+      </c>
+      <c r="H19" s="38">
+        <v>428.26400000000001</v>
+      </c>
+      <c r="I19" s="38">
+        <v>428.26400000000001</v>
+      </c>
+      <c r="J19" s="38">
+        <v>428.26400000000001</v>
+      </c>
+      <c r="K19" s="38">
+        <v>428.26400000000001</v>
+      </c>
+      <c r="L19" s="38">
+        <v>375.80099999999999</v>
+      </c>
+      <c r="M19" s="38">
+        <v>365.75400000000002</v>
+      </c>
+      <c r="N19" s="38">
+        <v>358.49700000000001</v>
+      </c>
+      <c r="O19" s="38">
+        <v>351.45</v>
+      </c>
+      <c r="P19" s="38">
+        <v>344.79599999999999</v>
+      </c>
+      <c r="Q19" s="38">
+        <v>340.27100000000002</v>
+      </c>
+      <c r="R19" s="38">
+        <v>337.81799999999998</v>
+      </c>
+      <c r="S19" s="38">
+        <v>335.92200000000003</v>
+      </c>
+      <c r="T19" s="38">
+        <v>333.71199999999999</v>
+      </c>
+      <c r="U19" s="38">
+        <v>331.52800000000002</v>
+      </c>
+      <c r="V19" s="38">
+        <v>329.59199999999998</v>
+      </c>
+      <c r="W19" s="38">
+        <v>328.41899999999998</v>
+      </c>
+      <c r="X19" s="38">
+        <v>327.96899999999999</v>
+      </c>
+      <c r="Y19" s="38">
+        <v>327.74799999999999</v>
+      </c>
+      <c r="Z19" s="38">
+        <v>327.25799999999998</v>
+      </c>
+      <c r="AA19" s="38">
+        <v>326.517</v>
+      </c>
+      <c r="AB19" s="38">
+        <v>324.58600000000001</v>
+      </c>
+      <c r="AC19" s="38">
+        <v>322.29700000000003</v>
+      </c>
+      <c r="AD19" s="38">
+        <v>319.74900000000002</v>
+      </c>
+      <c r="AE19" s="38">
+        <v>317.11599999999999</v>
+      </c>
+      <c r="AF19" s="38">
+        <v>314.51600000000002</v>
+      </c>
+      <c r="AG19" s="38">
+        <v>308.49099999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A20" s="38" t="s">
+        <v>391</v>
+      </c>
+      <c r="B20" s="38">
+        <v>3.2843900000000001</v>
+      </c>
+      <c r="C20" s="38">
+        <v>3.2843900000000001</v>
+      </c>
+      <c r="D20" s="38">
+        <v>3.2843900000000001</v>
+      </c>
+      <c r="E20" s="38">
+        <v>3.2843900000000001</v>
+      </c>
+      <c r="F20" s="38">
+        <v>3.2843900000000001</v>
+      </c>
+      <c r="G20" s="38">
+        <v>3.2843900000000001</v>
+      </c>
+      <c r="H20" s="38">
+        <v>3.2843900000000001</v>
+      </c>
+      <c r="I20" s="38">
+        <v>3.2843900000000001</v>
+      </c>
+      <c r="J20" s="38">
+        <v>3.2843900000000001</v>
+      </c>
+      <c r="K20" s="38">
+        <v>3.2843900000000001</v>
+      </c>
+      <c r="L20" s="38">
+        <v>3.2843900000000001</v>
+      </c>
+      <c r="M20" s="38">
+        <v>3.2843900000000001</v>
+      </c>
+      <c r="N20" s="38">
+        <v>3.2843900000000001</v>
+      </c>
+      <c r="O20" s="38">
+        <v>3.2843900000000001</v>
+      </c>
+      <c r="P20" s="38">
+        <v>2.7558199999999999</v>
+      </c>
+      <c r="Q20" s="38">
+        <v>2.7333599999999998</v>
+      </c>
+      <c r="R20" s="38">
+        <v>2.71285</v>
+      </c>
+      <c r="S20" s="38">
+        <v>2.6930299999999998</v>
+      </c>
+      <c r="T20" s="38">
+        <v>2.6758000000000002</v>
+      </c>
+      <c r="U20" s="38">
+        <v>2.6614</v>
+      </c>
+      <c r="V20" s="38">
+        <v>2.65069</v>
+      </c>
+      <c r="W20" s="38">
+        <v>2.6451500000000001</v>
+      </c>
+      <c r="X20" s="38">
+        <v>2.6431200000000001</v>
+      </c>
+      <c r="Y20" s="38">
+        <v>2.6446900000000002</v>
+      </c>
+      <c r="Z20" s="38">
+        <v>2.649</v>
+      </c>
+      <c r="AA20" s="38">
+        <v>2.6572</v>
+      </c>
+      <c r="AB20" s="38">
+        <v>2.6675</v>
+      </c>
+      <c r="AC20" s="38">
+        <v>2.6802600000000001</v>
+      </c>
+      <c r="AD20" s="38">
+        <v>2.69279</v>
+      </c>
+      <c r="AE20" s="38">
+        <v>2.7070599999999998</v>
+      </c>
+      <c r="AF20" s="38">
+        <v>2.7215400000000001</v>
+      </c>
+      <c r="AG20" s="38">
+        <v>2.73759</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A21" s="38" t="s">
+        <v>392</v>
+      </c>
+      <c r="B21" s="38">
+        <v>1.4572700000000001</v>
+      </c>
+      <c r="C21" s="38">
+        <v>1.4572700000000001</v>
+      </c>
+      <c r="D21" s="38">
+        <v>1.4572700000000001</v>
+      </c>
+      <c r="E21" s="38">
+        <v>1.4572700000000001</v>
+      </c>
+      <c r="F21" s="38">
+        <v>1.4572700000000001</v>
+      </c>
+      <c r="G21" s="38">
+        <v>1.4572700000000001</v>
+      </c>
+      <c r="H21" s="38">
+        <v>1.4572700000000001</v>
+      </c>
+      <c r="I21" s="38">
+        <v>1.4572700000000001</v>
+      </c>
+      <c r="J21" s="38">
+        <v>1.4572700000000001</v>
+      </c>
+      <c r="K21" s="38">
+        <v>1.4572700000000001</v>
+      </c>
+      <c r="L21" s="38">
+        <v>1.4572700000000001</v>
+      </c>
+      <c r="M21" s="38">
+        <v>1.4572700000000001</v>
+      </c>
+      <c r="N21" s="38">
+        <v>1.4572700000000001</v>
+      </c>
+      <c r="O21" s="38">
+        <v>1.4572700000000001</v>
+      </c>
+      <c r="P21" s="38">
+        <v>1.4572700000000001</v>
+      </c>
+      <c r="Q21" s="38">
+        <v>1.4572700000000001</v>
+      </c>
+      <c r="R21" s="38">
+        <v>1.4715800000000001</v>
+      </c>
+      <c r="S21" s="38">
+        <v>1.48272</v>
+      </c>
+      <c r="T21" s="38">
+        <v>1.4990000000000001</v>
+      </c>
+      <c r="U21" s="38">
+        <v>1.5163500000000001</v>
+      </c>
+      <c r="V21" s="38">
+        <v>1.53606</v>
+      </c>
+      <c r="W21" s="38">
+        <v>1.5568599999999999</v>
+      </c>
+      <c r="X21" s="38">
+        <v>1.57416</v>
+      </c>
+      <c r="Y21" s="38">
+        <v>1.5941000000000001</v>
+      </c>
+      <c r="Z21" s="38">
+        <v>1.6160300000000001</v>
+      </c>
+      <c r="AA21" s="38">
+        <v>1.6371800000000001</v>
+      </c>
+      <c r="AB21" s="38">
+        <v>1.65693</v>
+      </c>
+      <c r="AC21" s="38">
+        <v>1.6770700000000001</v>
+      </c>
+      <c r="AD21" s="38">
+        <v>1.6980900000000001</v>
+      </c>
+      <c r="AE21" s="38">
+        <v>1.72092</v>
+      </c>
+      <c r="AF21" s="38">
+        <v>1.7459499999999999</v>
+      </c>
+      <c r="AG21" s="38">
+        <v>1.77115</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A22" s="38" t="s">
+        <v>393</v>
+      </c>
+      <c r="B22" s="38">
+        <v>2.8238799999999999</v>
+      </c>
+      <c r="C22" s="38">
+        <v>2.8238799999999999</v>
+      </c>
+      <c r="D22" s="38">
+        <v>2.8238799999999999</v>
+      </c>
+      <c r="E22" s="38">
+        <v>2.8238799999999999</v>
+      </c>
+      <c r="F22" s="38">
+        <v>2.8238799999999999</v>
+      </c>
+      <c r="G22" s="38">
+        <v>2.8238799999999999</v>
+      </c>
+      <c r="H22" s="38">
+        <v>2.8238799999999999</v>
+      </c>
+      <c r="I22" s="38">
+        <v>2.8238799999999999</v>
+      </c>
+      <c r="J22" s="38">
+        <v>2.8238799999999999</v>
+      </c>
+      <c r="K22" s="38">
+        <v>2.8238799999999999</v>
+      </c>
+      <c r="L22" s="38">
+        <v>2.8238799999999999</v>
+      </c>
+      <c r="M22" s="38">
+        <v>2.8238799999999999</v>
+      </c>
+      <c r="N22" s="38">
+        <v>2.8238799999999999</v>
+      </c>
+      <c r="O22" s="38">
+        <v>2.8238799999999999</v>
+      </c>
+      <c r="P22" s="38">
+        <v>2.8238799999999999</v>
+      </c>
+      <c r="Q22" s="38">
+        <v>2.8238799999999999</v>
+      </c>
+      <c r="R22" s="38">
+        <v>2.8238799999999999</v>
+      </c>
+      <c r="S22" s="38">
+        <v>2.8238799999999999</v>
+      </c>
+      <c r="T22" s="38">
+        <v>2.8238799999999999</v>
+      </c>
+      <c r="U22" s="38">
+        <v>2.7551700000000001</v>
+      </c>
+      <c r="V22" s="38">
+        <v>2.7791399999999999</v>
+      </c>
+      <c r="W22" s="38">
+        <v>2.7990300000000001</v>
+      </c>
+      <c r="X22" s="38">
+        <v>2.8154599999999999</v>
+      </c>
+      <c r="Y22" s="38">
+        <v>2.8285800000000001</v>
+      </c>
+      <c r="Z22" s="38">
+        <v>2.8384200000000002</v>
+      </c>
+      <c r="AA22" s="38">
+        <v>2.8458000000000001</v>
+      </c>
+      <c r="AB22" s="38">
+        <v>2.8516499999999998</v>
+      </c>
+      <c r="AC22" s="38">
+        <v>2.8576800000000002</v>
+      </c>
+      <c r="AD22" s="38">
+        <v>2.86212</v>
+      </c>
+      <c r="AE22" s="38">
+        <v>2.8659699999999999</v>
+      </c>
+      <c r="AF22" s="38">
+        <v>2.8687200000000002</v>
+      </c>
+      <c r="AG22" s="38">
+        <v>2.8734500000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A23" s="38" t="s">
+        <v>394</v>
+      </c>
+      <c r="B23" s="38">
+        <v>74.606300000000005</v>
+      </c>
+      <c r="C23" s="38">
+        <v>74.606300000000005</v>
+      </c>
+      <c r="D23" s="38">
+        <v>74.606300000000005</v>
+      </c>
+      <c r="E23" s="38">
+        <v>74.606300000000005</v>
+      </c>
+      <c r="F23" s="38">
+        <v>74.606300000000005</v>
+      </c>
+      <c r="G23" s="38">
+        <v>74.606300000000005</v>
+      </c>
+      <c r="H23" s="38">
+        <v>74.606300000000005</v>
+      </c>
+      <c r="I23" s="38">
+        <v>74.606300000000005</v>
+      </c>
+      <c r="J23" s="38">
+        <v>74.606300000000005</v>
+      </c>
+      <c r="K23" s="38">
+        <v>74.606300000000005</v>
+      </c>
+      <c r="L23" s="38">
+        <v>74.606300000000005</v>
+      </c>
+      <c r="M23" s="38">
+        <v>74.606300000000005</v>
+      </c>
+      <c r="N23" s="38">
+        <v>74.606300000000005</v>
+      </c>
+      <c r="O23" s="38">
+        <v>74.606300000000005</v>
+      </c>
+      <c r="P23" s="38">
+        <v>74.606300000000005</v>
+      </c>
+      <c r="Q23" s="38">
+        <v>74.606300000000005</v>
+      </c>
+      <c r="R23" s="38">
+        <v>70.372399999999999</v>
+      </c>
+      <c r="S23" s="38">
+        <v>66.971000000000004</v>
+      </c>
+      <c r="T23" s="38">
+        <v>63.856900000000003</v>
+      </c>
+      <c r="U23" s="38">
+        <v>60.9422</v>
+      </c>
+      <c r="V23" s="38">
+        <v>58.317500000000003</v>
+      </c>
+      <c r="W23" s="38">
+        <v>55.978200000000001</v>
+      </c>
+      <c r="X23" s="38">
+        <v>53.800699999999999</v>
+      </c>
+      <c r="Y23" s="38">
+        <v>52.100999999999999</v>
+      </c>
+      <c r="Z23" s="38">
+        <v>50.677900000000001</v>
+      </c>
+      <c r="AA23" s="38">
+        <v>49.524000000000001</v>
+      </c>
+      <c r="AB23" s="38">
+        <v>48.630400000000002</v>
+      </c>
+      <c r="AC23" s="38">
+        <v>47.9514</v>
+      </c>
+      <c r="AD23" s="38">
+        <v>47.297499999999999</v>
+      </c>
+      <c r="AE23" s="38">
+        <v>46.868600000000001</v>
+      </c>
+      <c r="AF23" s="38">
+        <v>46.499200000000002</v>
+      </c>
+      <c r="AG23" s="38">
+        <v>46.163400000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A24" s="38" t="s">
+        <v>395</v>
+      </c>
+      <c r="B24" s="38">
+        <v>0</v>
+      </c>
+      <c r="C24" s="38">
+        <v>0</v>
+      </c>
+      <c r="D24" s="38">
+        <v>0</v>
+      </c>
+      <c r="E24" s="38">
+        <v>0</v>
+      </c>
+      <c r="F24" s="38">
+        <v>0</v>
+      </c>
+      <c r="G24" s="38">
+        <v>0</v>
+      </c>
+      <c r="H24" s="38">
+        <v>0</v>
+      </c>
+      <c r="I24" s="38">
+        <v>0</v>
+      </c>
+      <c r="J24" s="38">
+        <v>0</v>
+      </c>
+      <c r="K24" s="38">
+        <v>0</v>
+      </c>
+      <c r="L24" s="38">
+        <v>0</v>
+      </c>
+      <c r="M24" s="38">
+        <v>0</v>
+      </c>
+      <c r="N24" s="38">
+        <v>0</v>
+      </c>
+      <c r="O24" s="38">
+        <v>0</v>
+      </c>
+      <c r="P24" s="38">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="38">
+        <v>0</v>
+      </c>
+      <c r="R24" s="38">
+        <v>0</v>
+      </c>
+      <c r="S24" s="38">
+        <v>0</v>
+      </c>
+      <c r="T24" s="38">
+        <v>0</v>
+      </c>
+      <c r="U24" s="38">
+        <v>0</v>
+      </c>
+      <c r="V24" s="38">
+        <v>0</v>
+      </c>
+      <c r="W24" s="38">
+        <v>0</v>
+      </c>
+      <c r="X24" s="38">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="38">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="38">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="38">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="38">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="38">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="38">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="38">
+        <v>0</v>
+      </c>
+      <c r="AF24" s="38">
+        <v>0</v>
+      </c>
+      <c r="AG24" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A25" s="38" t="s">
+        <v>396</v>
+      </c>
+      <c r="B25" s="38">
+        <v>181.79900000000001</v>
+      </c>
+      <c r="C25" s="38">
+        <v>181.79900000000001</v>
+      </c>
+      <c r="D25" s="38">
+        <v>181.79900000000001</v>
+      </c>
+      <c r="E25" s="38">
+        <v>181.79900000000001</v>
+      </c>
+      <c r="F25" s="38">
+        <v>181.79900000000001</v>
+      </c>
+      <c r="G25" s="38">
+        <v>181.79900000000001</v>
+      </c>
+      <c r="H25" s="38">
+        <v>181.79900000000001</v>
+      </c>
+      <c r="I25" s="38">
+        <v>181.79900000000001</v>
+      </c>
+      <c r="J25" s="38">
+        <v>181.79900000000001</v>
+      </c>
+      <c r="K25" s="38">
+        <v>181.79900000000001</v>
+      </c>
+      <c r="L25" s="38">
+        <v>159.52799999999999</v>
+      </c>
+      <c r="M25" s="38">
+        <v>155.26300000000001</v>
+      </c>
+      <c r="N25" s="38">
+        <v>152.18199999999999</v>
+      </c>
+      <c r="O25" s="38">
+        <v>149.191</v>
+      </c>
+      <c r="P25" s="38">
+        <v>146.36600000000001</v>
+      </c>
+      <c r="Q25" s="38">
+        <v>144.446</v>
+      </c>
+      <c r="R25" s="38">
+        <v>143.404</v>
+      </c>
+      <c r="S25" s="38">
+        <v>142.59899999999999</v>
+      </c>
+      <c r="T25" s="38">
+        <v>141.661</v>
+      </c>
+      <c r="U25" s="38">
+        <v>140.73400000000001</v>
+      </c>
+      <c r="V25" s="38">
+        <v>139.91200000000001</v>
+      </c>
+      <c r="W25" s="38">
+        <v>139.41399999999999</v>
+      </c>
+      <c r="X25" s="38">
+        <v>139.22300000000001</v>
+      </c>
+      <c r="Y25" s="38">
+        <v>139.12899999999999</v>
+      </c>
+      <c r="Z25" s="38">
+        <v>138.922</v>
+      </c>
+      <c r="AA25" s="38">
+        <v>138.607</v>
+      </c>
+      <c r="AB25" s="38">
+        <v>137.78700000000001</v>
+      </c>
+      <c r="AC25" s="38">
+        <v>136.816</v>
+      </c>
+      <c r="AD25" s="38">
+        <v>135.73400000000001</v>
+      </c>
+      <c r="AE25" s="38">
+        <v>134.61600000000001</v>
+      </c>
+      <c r="AF25" s="38">
+        <v>133.512</v>
+      </c>
+      <c r="AG25" s="38">
+        <v>130.95500000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A26" s="38" t="s">
+        <v>397</v>
+      </c>
+      <c r="B26" s="38">
+        <v>1.3942300000000001</v>
+      </c>
+      <c r="C26" s="38">
+        <v>1.3942300000000001</v>
+      </c>
+      <c r="D26" s="38">
+        <v>1.3942300000000001</v>
+      </c>
+      <c r="E26" s="38">
+        <v>1.3942300000000001</v>
+      </c>
+      <c r="F26" s="38">
+        <v>1.3942300000000001</v>
+      </c>
+      <c r="G26" s="38">
+        <v>1.3942300000000001</v>
+      </c>
+      <c r="H26" s="38">
+        <v>1.3942300000000001</v>
+      </c>
+      <c r="I26" s="38">
+        <v>1.3942300000000001</v>
+      </c>
+      <c r="J26" s="38">
+        <v>1.3942300000000001</v>
+      </c>
+      <c r="K26" s="38">
+        <v>1.3942300000000001</v>
+      </c>
+      <c r="L26" s="38">
+        <v>1.3942300000000001</v>
+      </c>
+      <c r="M26" s="38">
+        <v>1.3942300000000001</v>
+      </c>
+      <c r="N26" s="38">
+        <v>1.3942300000000001</v>
+      </c>
+      <c r="O26" s="38">
+        <v>1.3942300000000001</v>
+      </c>
+      <c r="P26" s="38">
+        <v>1.1698500000000001</v>
+      </c>
+      <c r="Q26" s="38">
+        <v>1.16032</v>
+      </c>
+      <c r="R26" s="38">
+        <v>1.15161</v>
+      </c>
+      <c r="S26" s="38">
+        <v>1.1431899999999999</v>
+      </c>
+      <c r="T26" s="38">
+        <v>1.13588</v>
+      </c>
+      <c r="U26" s="38">
+        <v>1.1297699999999999</v>
+      </c>
+      <c r="V26" s="38">
+        <v>1.1252200000000001</v>
+      </c>
+      <c r="W26" s="38">
+        <v>1.12287</v>
+      </c>
+      <c r="X26" s="38">
+        <v>1.12201</v>
+      </c>
+      <c r="Y26" s="38">
+        <v>1.1226700000000001</v>
+      </c>
+      <c r="Z26" s="38">
+        <v>1.1245099999999999</v>
+      </c>
+      <c r="AA26" s="38">
+        <v>1.12798</v>
+      </c>
+      <c r="AB26" s="38">
+        <v>1.13236</v>
+      </c>
+      <c r="AC26" s="38">
+        <v>1.1377699999999999</v>
+      </c>
+      <c r="AD26" s="38">
+        <v>1.1430899999999999</v>
+      </c>
+      <c r="AE26" s="38">
+        <v>1.1491499999999999</v>
+      </c>
+      <c r="AF26" s="38">
+        <v>1.1553</v>
+      </c>
+      <c r="AG26" s="38">
+        <v>1.16211</v>
+      </c>
+    </row>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A27" s="38" t="s">
+        <v>398</v>
+      </c>
+      <c r="B27" s="38">
+        <v>618.61500000000001</v>
+      </c>
+      <c r="C27" s="38">
+        <v>618.61500000000001</v>
+      </c>
+      <c r="D27" s="38">
+        <v>618.61500000000001</v>
+      </c>
+      <c r="E27" s="38">
+        <v>618.61500000000001</v>
+      </c>
+      <c r="F27" s="38">
+        <v>618.61500000000001</v>
+      </c>
+      <c r="G27" s="38">
+        <v>618.61500000000001</v>
+      </c>
+      <c r="H27" s="38">
+        <v>618.61500000000001</v>
+      </c>
+      <c r="I27" s="38">
+        <v>618.61500000000001</v>
+      </c>
+      <c r="J27" s="38">
+        <v>618.61500000000001</v>
+      </c>
+      <c r="K27" s="38">
+        <v>618.61500000000001</v>
+      </c>
+      <c r="L27" s="38">
+        <v>618.61500000000001</v>
+      </c>
+      <c r="M27" s="38">
+        <v>618.61500000000001</v>
+      </c>
+      <c r="N27" s="38">
+        <v>618.61500000000001</v>
+      </c>
+      <c r="O27" s="38">
+        <v>618.61500000000001</v>
+      </c>
+      <c r="P27" s="38">
+        <v>618.61500000000001</v>
+      </c>
+      <c r="Q27" s="38">
+        <v>618.61500000000001</v>
+      </c>
+      <c r="R27" s="38">
+        <v>624.68799999999999</v>
+      </c>
+      <c r="S27" s="38">
+        <v>629.41600000000005</v>
+      </c>
+      <c r="T27" s="38">
+        <v>636.32600000000002</v>
+      </c>
+      <c r="U27" s="38">
+        <v>643.69299999999998</v>
+      </c>
+      <c r="V27" s="38">
+        <v>652.06100000000004</v>
+      </c>
+      <c r="W27" s="38">
+        <v>660.88900000000001</v>
+      </c>
+      <c r="X27" s="38">
+        <v>668.23099999999999</v>
+      </c>
+      <c r="Y27" s="38">
+        <v>676.69600000000003</v>
+      </c>
+      <c r="Z27" s="38">
+        <v>686.00599999999997</v>
+      </c>
+      <c r="AA27" s="38">
+        <v>694.98299999999995</v>
+      </c>
+      <c r="AB27" s="38">
+        <v>703.36900000000003</v>
+      </c>
+      <c r="AC27" s="38">
+        <v>711.91800000000001</v>
+      </c>
+      <c r="AD27" s="38">
+        <v>720.84199999999998</v>
+      </c>
+      <c r="AE27" s="38">
+        <v>730.53099999999995</v>
+      </c>
+      <c r="AF27" s="38">
+        <v>741.15899999999999</v>
+      </c>
+      <c r="AG27" s="38">
+        <v>751.85699999999997</v>
+      </c>
+    </row>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A28" s="38" t="s">
+        <v>399</v>
+      </c>
+      <c r="B28" s="38">
+        <v>3.3275800000000002</v>
+      </c>
+      <c r="C28" s="38">
+        <v>3.3275800000000002</v>
+      </c>
+      <c r="D28" s="38">
+        <v>3.3275800000000002</v>
+      </c>
+      <c r="E28" s="38">
+        <v>3.3275800000000002</v>
+      </c>
+      <c r="F28" s="38">
+        <v>3.3275800000000002</v>
+      </c>
+      <c r="G28" s="38">
+        <v>3.3275800000000002</v>
+      </c>
+      <c r="H28" s="38">
+        <v>3.3275800000000002</v>
+      </c>
+      <c r="I28" s="38">
+        <v>3.3275800000000002</v>
+      </c>
+      <c r="J28" s="38">
+        <v>3.3275800000000002</v>
+      </c>
+      <c r="K28" s="38">
+        <v>3.3275800000000002</v>
+      </c>
+      <c r="L28" s="38">
+        <v>3.3275800000000002</v>
+      </c>
+      <c r="M28" s="38">
+        <v>3.3275800000000002</v>
+      </c>
+      <c r="N28" s="38">
+        <v>3.3275800000000002</v>
+      </c>
+      <c r="O28" s="38">
+        <v>3.3275800000000002</v>
+      </c>
+      <c r="P28" s="38">
+        <v>3.3275800000000002</v>
+      </c>
+      <c r="Q28" s="38">
+        <v>3.3275800000000002</v>
+      </c>
+      <c r="R28" s="38">
+        <v>3.3275800000000002</v>
+      </c>
+      <c r="S28" s="38">
+        <v>3.3275800000000002</v>
+      </c>
+      <c r="T28" s="38">
+        <v>3.3275800000000002</v>
+      </c>
+      <c r="U28" s="38">
+        <v>3.7189700000000001</v>
+      </c>
+      <c r="V28" s="38">
+        <v>3.7238500000000001</v>
+      </c>
+      <c r="W28" s="38">
+        <v>3.7228300000000001</v>
+      </c>
+      <c r="X28" s="38">
+        <v>3.7134200000000002</v>
+      </c>
+      <c r="Y28" s="38">
+        <v>3.7014900000000002</v>
+      </c>
+      <c r="Z28" s="38">
+        <v>3.6882799999999998</v>
+      </c>
+      <c r="AA28" s="38">
+        <v>3.6742599999999999</v>
+      </c>
+      <c r="AB28" s="38">
+        <v>3.6594199999999999</v>
+      </c>
+      <c r="AC28" s="38">
+        <v>3.6453799999999998</v>
+      </c>
+      <c r="AD28" s="38">
+        <v>3.6310199999999999</v>
+      </c>
+      <c r="AE28" s="38">
+        <v>3.61564</v>
+      </c>
+      <c r="AF28" s="38">
+        <v>3.5998000000000001</v>
+      </c>
+      <c r="AG28" s="38">
+        <v>3.5840700000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A29" s="38" t="s">
+        <v>400</v>
+      </c>
+      <c r="B29" s="38">
+        <v>888.58799999999997</v>
+      </c>
+      <c r="C29" s="38">
+        <v>888.58799999999997</v>
+      </c>
+      <c r="D29" s="38">
+        <v>888.58799999999997</v>
+      </c>
+      <c r="E29" s="38">
+        <v>888.58799999999997</v>
+      </c>
+      <c r="F29" s="38">
+        <v>888.58799999999997</v>
+      </c>
+      <c r="G29" s="38">
+        <v>888.58799999999997</v>
+      </c>
+      <c r="H29" s="38">
+        <v>888.58799999999997</v>
+      </c>
+      <c r="I29" s="38">
+        <v>888.58799999999997</v>
+      </c>
+      <c r="J29" s="38">
+        <v>888.58799999999997</v>
+      </c>
+      <c r="K29" s="38">
+        <v>888.58799999999997</v>
+      </c>
+      <c r="L29" s="38">
+        <v>888.58799999999997</v>
+      </c>
+      <c r="M29" s="38">
+        <v>888.58799999999997</v>
+      </c>
+      <c r="N29" s="38">
+        <v>888.58799999999997</v>
+      </c>
+      <c r="O29" s="38">
+        <v>888.58799999999997</v>
+      </c>
+      <c r="P29" s="38">
+        <v>888.58799999999997</v>
+      </c>
+      <c r="Q29" s="38">
+        <v>888.58799999999997</v>
+      </c>
+      <c r="R29" s="38">
+        <v>855.95500000000004</v>
+      </c>
+      <c r="S29" s="38">
+        <v>857.61800000000005</v>
+      </c>
+      <c r="T29" s="38">
+        <v>858.04600000000005</v>
+      </c>
+      <c r="U29" s="38">
+        <v>857.64800000000002</v>
+      </c>
+      <c r="V29" s="38">
+        <v>856.47299999999996</v>
+      </c>
+      <c r="W29" s="38">
+        <v>853.01199999999994</v>
+      </c>
+      <c r="X29" s="38">
+        <v>847.97699999999998</v>
+      </c>
+      <c r="Y29" s="38">
+        <v>842.02800000000002</v>
+      </c>
+      <c r="Z29" s="38">
+        <v>834.44</v>
+      </c>
+      <c r="AA29" s="38">
+        <v>826.09900000000005</v>
+      </c>
+      <c r="AB29" s="38">
+        <v>816.18299999999999</v>
+      </c>
+      <c r="AC29" s="38">
+        <v>805.06299999999999</v>
+      </c>
+      <c r="AD29" s="38">
+        <v>793.798</v>
+      </c>
+      <c r="AE29" s="38">
+        <v>782.673</v>
+      </c>
+      <c r="AF29" s="38">
+        <v>771.58799999999997</v>
+      </c>
+      <c r="AG29" s="38">
+        <v>760.93399999999997</v>
+      </c>
+    </row>
+    <row r="30" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A30" s="38" t="s">
+        <v>401</v>
+      </c>
+      <c r="B30" s="38">
+        <v>0</v>
+      </c>
+      <c r="C30" s="38">
+        <v>0</v>
+      </c>
+      <c r="D30" s="38">
+        <v>0</v>
+      </c>
+      <c r="E30" s="38">
+        <v>0</v>
+      </c>
+      <c r="F30" s="38">
+        <v>0</v>
+      </c>
+      <c r="G30" s="38">
+        <v>0</v>
+      </c>
+      <c r="H30" s="38">
+        <v>0</v>
+      </c>
+      <c r="I30" s="38">
+        <v>0</v>
+      </c>
+      <c r="J30" s="38">
+        <v>0</v>
+      </c>
+      <c r="K30" s="38">
+        <v>0</v>
+      </c>
+      <c r="L30" s="38">
+        <v>0</v>
+      </c>
+      <c r="M30" s="38">
+        <v>0</v>
+      </c>
+      <c r="N30" s="38">
+        <v>0</v>
+      </c>
+      <c r="O30" s="38">
+        <v>0</v>
+      </c>
+      <c r="P30" s="38">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="38">
+        <v>0</v>
+      </c>
+      <c r="R30" s="38">
+        <v>0</v>
+      </c>
+      <c r="S30" s="38">
+        <v>0</v>
+      </c>
+      <c r="T30" s="38">
+        <v>0</v>
+      </c>
+      <c r="U30" s="38">
+        <v>0</v>
+      </c>
+      <c r="V30" s="38">
+        <v>0</v>
+      </c>
+      <c r="W30" s="38">
+        <v>0</v>
+      </c>
+      <c r="X30" s="38">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="38">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="38">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="38">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="38">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="38">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="38">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="38">
+        <v>0</v>
+      </c>
+      <c r="AF30" s="38">
+        <v>0</v>
+      </c>
+      <c r="AG30" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A31" s="38" t="s">
+        <v>402</v>
+      </c>
+      <c r="B31" s="38">
+        <v>1.04592</v>
+      </c>
+      <c r="C31" s="38">
+        <v>1.04592</v>
+      </c>
+      <c r="D31" s="38">
+        <v>1.04592</v>
+      </c>
+      <c r="E31" s="38">
+        <v>1.04592</v>
+      </c>
+      <c r="F31" s="38">
+        <v>1.04592</v>
+      </c>
+      <c r="G31" s="38">
+        <v>1.04592</v>
+      </c>
+      <c r="H31" s="38">
+        <v>1.04592</v>
+      </c>
+      <c r="I31" s="38">
+        <v>1.04592</v>
+      </c>
+      <c r="J31" s="38">
+        <v>1.04592</v>
+      </c>
+      <c r="K31" s="38">
+        <v>1.04592</v>
+      </c>
+      <c r="L31" s="38">
+        <v>1.02562</v>
+      </c>
+      <c r="M31" s="38">
+        <v>1.0079400000000001</v>
+      </c>
+      <c r="N31" s="38">
+        <v>966.66</v>
+      </c>
+      <c r="O31" s="38">
+        <v>909.44299999999998</v>
+      </c>
+      <c r="P31" s="38">
+        <v>850.84199999999998</v>
+      </c>
+      <c r="Q31" s="38">
+        <v>796.73199999999997</v>
+      </c>
+      <c r="R31" s="38">
+        <v>745.75699999999995</v>
+      </c>
+      <c r="S31" s="38">
+        <v>698.51300000000003</v>
+      </c>
+      <c r="T31" s="38">
+        <v>655.654</v>
+      </c>
+      <c r="U31" s="38">
+        <v>617.23900000000003</v>
+      </c>
+      <c r="V31" s="38">
+        <v>583.59199999999998</v>
+      </c>
+      <c r="W31" s="38">
+        <v>554.86300000000006</v>
+      </c>
+      <c r="X31" s="38">
+        <v>530.44000000000005</v>
+      </c>
+      <c r="Y31" s="38">
+        <v>509.15</v>
+      </c>
+      <c r="Z31" s="38">
+        <v>490.14299999999997</v>
+      </c>
+      <c r="AA31" s="38">
+        <v>472.64</v>
+      </c>
+      <c r="AB31" s="38">
+        <v>456.17399999999998</v>
+      </c>
+      <c r="AC31" s="38">
+        <v>440.97699999999998</v>
+      </c>
+      <c r="AD31" s="38">
+        <v>427.35599999999999</v>
+      </c>
+      <c r="AE31" s="38">
+        <v>414.81599999999997</v>
+      </c>
+      <c r="AF31" s="38">
+        <v>402.911</v>
+      </c>
+      <c r="AG31" s="38">
+        <v>392.10599999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A32" s="38" t="s">
+        <v>403</v>
+      </c>
+      <c r="B32" s="38">
+        <v>2.0589599999999999</v>
+      </c>
+      <c r="C32" s="38">
+        <v>2.0589599999999999</v>
+      </c>
+      <c r="D32" s="38">
+        <v>2.0589599999999999</v>
+      </c>
+      <c r="E32" s="38">
+        <v>2.0589599999999999</v>
+      </c>
+      <c r="F32" s="38">
+        <v>2.0589599999999999</v>
+      </c>
+      <c r="G32" s="38">
+        <v>2.0589599999999999</v>
+      </c>
+      <c r="H32" s="38">
+        <v>2.0589599999999999</v>
+      </c>
+      <c r="I32" s="38">
+        <v>2.0589599999999999</v>
+      </c>
+      <c r="J32" s="38">
+        <v>2.0589599999999999</v>
+      </c>
+      <c r="K32" s="38">
+        <v>2.0589599999999999</v>
+      </c>
+      <c r="L32" s="38">
+        <v>2.0589599999999999</v>
+      </c>
+      <c r="M32" s="38">
+        <v>2.0589599999999999</v>
+      </c>
+      <c r="N32" s="38">
+        <v>2.0589599999999999</v>
+      </c>
+      <c r="O32" s="38">
+        <v>2.0589599999999999</v>
+      </c>
+      <c r="P32" s="38">
+        <v>2.1337799999999998</v>
+      </c>
+      <c r="Q32" s="38">
+        <v>2.1659999999999999</v>
+      </c>
+      <c r="R32" s="38">
+        <v>2.1968899999999998</v>
+      </c>
+      <c r="S32" s="38">
+        <v>2.2243200000000001</v>
+      </c>
+      <c r="T32" s="38">
+        <v>2.2492399999999999</v>
+      </c>
+      <c r="U32" s="38">
+        <v>2.2700800000000001</v>
+      </c>
+      <c r="V32" s="38">
+        <v>2.2871000000000001</v>
+      </c>
+      <c r="W32" s="38">
+        <v>2.30023</v>
+      </c>
+      <c r="X32" s="38">
+        <v>2.3122099999999999</v>
+      </c>
+      <c r="Y32" s="38">
+        <v>2.3234900000000001</v>
+      </c>
+      <c r="Z32" s="38">
+        <v>2.3357700000000001</v>
+      </c>
+      <c r="AA32" s="38">
+        <v>2.3480699999999999</v>
+      </c>
+      <c r="AB32" s="38">
+        <v>2.3620399999999999</v>
+      </c>
+      <c r="AC32" s="38">
+        <v>2.3764799999999999</v>
+      </c>
+      <c r="AD32" s="38">
+        <v>2.3925100000000001</v>
+      </c>
+      <c r="AE32" s="38">
+        <v>2.40998</v>
+      </c>
+      <c r="AF32" s="38">
+        <v>2.4287000000000001</v>
+      </c>
+      <c r="AG32" s="38">
+        <v>2.4476399999999998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A33" s="38" t="s">
+        <v>404</v>
+      </c>
+      <c r="B33" s="38">
+        <v>4.0713100000000004</v>
+      </c>
+      <c r="C33" s="38">
+        <v>4.0713100000000004</v>
+      </c>
+      <c r="D33" s="38">
+        <v>4.0713100000000004</v>
+      </c>
+      <c r="E33" s="38">
+        <v>4.0713100000000004</v>
+      </c>
+      <c r="F33" s="38">
+        <v>4.0713100000000004</v>
+      </c>
+      <c r="G33" s="38">
+        <v>4.0713100000000004</v>
+      </c>
+      <c r="H33" s="38">
+        <v>4.0713100000000004</v>
+      </c>
+      <c r="I33" s="38">
+        <v>4.0713100000000004</v>
+      </c>
+      <c r="J33" s="38">
+        <v>4.0713100000000004</v>
+      </c>
+      <c r="K33" s="38">
+        <v>4.0713100000000004</v>
+      </c>
+      <c r="L33" s="38">
+        <v>4.0713100000000004</v>
+      </c>
+      <c r="M33" s="38">
+        <v>4.0713100000000004</v>
+      </c>
+      <c r="N33" s="38">
+        <v>4.0713100000000004</v>
+      </c>
+      <c r="O33" s="38">
+        <v>4.0713100000000004</v>
+      </c>
+      <c r="P33" s="38">
+        <v>4.0713100000000004</v>
+      </c>
+      <c r="Q33" s="38">
+        <v>4.0713100000000004</v>
+      </c>
+      <c r="R33" s="38">
+        <v>4.3615599999999999</v>
+      </c>
+      <c r="S33" s="38">
+        <v>4.3617900000000001</v>
+      </c>
+      <c r="T33" s="38">
+        <v>4.4010199999999999</v>
+      </c>
+      <c r="U33" s="38">
+        <v>4.4552500000000004</v>
+      </c>
+      <c r="V33" s="38">
+        <v>4.5192199999999998</v>
+      </c>
+      <c r="W33" s="38">
+        <v>4.58474</v>
+      </c>
+      <c r="X33" s="38">
+        <v>4.6565099999999999</v>
+      </c>
+      <c r="Y33" s="38">
+        <v>4.7289599999999998</v>
+      </c>
+      <c r="Z33" s="38">
+        <v>4.8067200000000003</v>
+      </c>
+      <c r="AA33" s="38">
+        <v>4.8903299999999996</v>
+      </c>
+      <c r="AB33" s="38">
+        <v>4.9785500000000003</v>
+      </c>
+      <c r="AC33" s="38">
+        <v>5.0685000000000002</v>
+      </c>
+      <c r="AD33" s="38">
+        <v>5.16242</v>
+      </c>
+      <c r="AE33" s="38">
+        <v>5.2602099999999998</v>
+      </c>
+      <c r="AF33" s="38">
+        <v>5.3597000000000001</v>
+      </c>
+      <c r="AG33" s="38">
+        <v>5.4588099999999997</v>
+      </c>
+    </row>
+    <row r="34" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="35" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>387</v>
+      </c>
+      <c r="C35">
+        <f>(C16-B16)/C16</f>
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <f t="shared" ref="D35:AG42" si="0">(D16-C16)/D16</f>
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U35" s="40">
+        <f t="shared" si="0"/>
+        <v>-2.4936945043194669E-2</v>
+      </c>
+      <c r="V35">
+        <f t="shared" si="0"/>
+        <v>8.6240210911234152E-3</v>
+      </c>
+      <c r="W35">
+        <f t="shared" si="0"/>
+        <v>7.1052887006952201E-3</v>
+      </c>
+      <c r="X35">
+        <f t="shared" si="0"/>
+        <v>5.8380073578191373E-3</v>
+      </c>
+      <c r="Y35">
+        <f t="shared" si="0"/>
+        <v>4.6388356537517298E-3</v>
+      </c>
+      <c r="Z35">
+        <f t="shared" si="0"/>
+        <v>3.4666917919566136E-3</v>
+      </c>
+      <c r="AA35">
+        <f t="shared" si="0"/>
+        <v>2.5925323730919859E-3</v>
+      </c>
+      <c r="AB35">
+        <f t="shared" si="0"/>
+        <v>2.0498270225853214E-3</v>
+      </c>
+      <c r="AC35">
+        <f t="shared" si="0"/>
+        <v>2.110861056024628E-3</v>
+      </c>
+      <c r="AD35">
+        <f t="shared" si="0"/>
+        <v>1.5513970731099781E-3</v>
+      </c>
+      <c r="AE35">
+        <f t="shared" si="0"/>
+        <v>1.3419498561032571E-3</v>
+      </c>
+      <c r="AF35">
+        <f t="shared" si="0"/>
+        <v>9.6184152699000584E-4</v>
+      </c>
+      <c r="AG35">
+        <f t="shared" si="0"/>
+        <v>1.6442605997932529E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>388</v>
+      </c>
+      <c r="C36">
+        <f t="shared" ref="C36:R51" si="1">(C17-B17)/C17</f>
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R36" s="40">
+        <f t="shared" si="1"/>
+        <v>-6.0165524563266029E-2</v>
+      </c>
+      <c r="S36">
+        <f t="shared" si="0"/>
+        <v>-5.0784716411855682E-2</v>
+      </c>
+      <c r="T36">
+        <f t="shared" si="0"/>
+        <v>-4.8767516685723489E-2</v>
+      </c>
+      <c r="U36">
+        <f t="shared" si="0"/>
+        <v>-4.7826026385812299E-2</v>
+      </c>
+      <c r="V36">
+        <f t="shared" si="0"/>
+        <v>-4.5006878780599814E-2</v>
+      </c>
+      <c r="W36">
+        <f t="shared" si="0"/>
+        <v>-4.1791791791791759E-2</v>
+      </c>
+      <c r="X36">
+        <f t="shared" si="0"/>
+        <v>-4.0468995336873342E-2</v>
+      </c>
+      <c r="Y36">
+        <f t="shared" si="0"/>
+        <v>-3.2623131136187762E-2</v>
+      </c>
+      <c r="Z36">
+        <f t="shared" si="0"/>
+        <v>-2.8086311169187937E-2</v>
+      </c>
+      <c r="AA36">
+        <f t="shared" si="0"/>
+        <v>-2.3297675375437182E-2</v>
+      </c>
+      <c r="AB36">
+        <f t="shared" si="0"/>
+        <v>-1.8374811232639985E-2</v>
+      </c>
+      <c r="AC36">
+        <f t="shared" si="0"/>
+        <v>-1.4164431342345402E-2</v>
+      </c>
+      <c r="AD36">
+        <f t="shared" si="0"/>
+        <v>-1.3821700069108557E-2</v>
+      </c>
+      <c r="AE36">
+        <f t="shared" si="0"/>
+        <v>-9.1478049796664303E-3</v>
+      </c>
+      <c r="AF36">
+        <f t="shared" si="0"/>
+        <v>-7.9515784476620836E-3</v>
+      </c>
+      <c r="AG36">
+        <f t="shared" si="0"/>
+        <v>-7.273763873945919E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>389</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
+      <c r="R37">
+        <v>0</v>
+      </c>
+      <c r="S37">
+        <v>0</v>
+      </c>
+      <c r="T37">
+        <v>0</v>
+      </c>
+      <c r="U37">
+        <v>0</v>
+      </c>
+      <c r="V37">
+        <v>0</v>
+      </c>
+      <c r="W37">
+        <v>0</v>
+      </c>
+      <c r="X37">
+        <v>0</v>
+      </c>
+      <c r="Y37">
+        <v>0</v>
+      </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
+      <c r="AA37">
+        <v>0</v>
+      </c>
+      <c r="AB37">
+        <v>0</v>
+      </c>
+      <c r="AC37">
+        <v>0</v>
+      </c>
+      <c r="AD37">
+        <v>0</v>
+      </c>
+      <c r="AE37">
+        <v>0</v>
+      </c>
+      <c r="AF37">
+        <v>0</v>
+      </c>
+      <c r="AG37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>390</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L38" s="40">
+        <f t="shared" si="0"/>
+        <v>-0.1396031410241059</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="0"/>
+        <v>-2.7469282632589031E-2</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="0"/>
+        <v>-2.0242847220478845E-2</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="0"/>
+        <v>-2.005121638924463E-2</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="0"/>
+        <v>-1.9298367730484101E-2</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" si="0"/>
+        <v>-1.3298224062585342E-2</v>
+      </c>
+      <c r="R38">
+        <f t="shared" si="0"/>
+        <v>-7.2613063839109563E-3</v>
+      </c>
+      <c r="S38">
+        <f t="shared" si="0"/>
+        <v>-5.6441673960025184E-3</v>
+      </c>
+      <c r="T38">
+        <f t="shared" si="0"/>
+        <v>-6.6224768662800151E-3</v>
+      </c>
+      <c r="U38">
+        <f t="shared" si="0"/>
+        <v>-6.5876788687530734E-3</v>
+      </c>
+      <c r="V38">
+        <f t="shared" si="0"/>
+        <v>-5.8739289788588183E-3</v>
+      </c>
+      <c r="W38">
+        <f t="shared" si="0"/>
+        <v>-3.5716569382404852E-3</v>
+      </c>
+      <c r="X38">
+        <f t="shared" si="0"/>
+        <v>-1.372080897889705E-3</v>
+      </c>
+      <c r="Y38">
+        <f t="shared" si="0"/>
+        <v>-6.7429854644423051E-4</v>
+      </c>
+      <c r="Z38">
+        <f t="shared" si="0"/>
+        <v>-1.4972896002542616E-3</v>
+      </c>
+      <c r="AA38">
+        <f t="shared" si="0"/>
+        <v>-2.2694071059086831E-3</v>
+      </c>
+      <c r="AB38">
+        <f t="shared" si="0"/>
+        <v>-5.9491167209922277E-3</v>
+      </c>
+      <c r="AC38">
+        <f t="shared" si="0"/>
+        <v>-7.1021449160246202E-3</v>
+      </c>
+      <c r="AD38">
+        <f t="shared" si="0"/>
+        <v>-7.9687504886645517E-3</v>
+      </c>
+      <c r="AE38">
+        <f t="shared" si="0"/>
+        <v>-8.3029553854111378E-3</v>
+      </c>
+      <c r="AF38">
+        <f t="shared" si="0"/>
+        <v>-8.2666700581209406E-3</v>
+      </c>
+      <c r="AG38">
+        <f t="shared" si="0"/>
+        <v>-1.953055356558225E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>391</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P39" s="40">
+        <f t="shared" si="0"/>
+        <v>-0.19180135132192966</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" si="0"/>
+        <v>-8.2169930049463477E-3</v>
+      </c>
+      <c r="R39">
+        <f t="shared" si="0"/>
+        <v>-7.5603147980904976E-3</v>
+      </c>
+      <c r="S39">
+        <f t="shared" si="0"/>
+        <v>-7.3597397726724812E-3</v>
+      </c>
+      <c r="T39">
+        <f t="shared" si="0"/>
+        <v>-6.4391957545405611E-3</v>
+      </c>
+      <c r="U39">
+        <f t="shared" si="0"/>
+        <v>-5.4106861050575604E-3</v>
+      </c>
+      <c r="V39">
+        <f t="shared" si="0"/>
+        <v>-4.0404573903398732E-3</v>
+      </c>
+      <c r="W39">
+        <f t="shared" si="0"/>
+        <v>-2.0943991834111025E-3</v>
+      </c>
+      <c r="X39">
+        <f t="shared" si="0"/>
+        <v>-7.6803172008837138E-4</v>
+      </c>
+      <c r="Y39">
+        <f t="shared" si="0"/>
+        <v>5.9364235505865383E-4</v>
+      </c>
+      <c r="Z39">
+        <f t="shared" si="0"/>
+        <v>1.6270290675725987E-3</v>
+      </c>
+      <c r="AA39">
+        <f t="shared" si="0"/>
+        <v>3.0859551407496559E-3</v>
+      </c>
+      <c r="AB39">
+        <f t="shared" si="0"/>
+        <v>3.8612933458294194E-3</v>
+      </c>
+      <c r="AC39">
+        <f t="shared" si="0"/>
+        <v>4.7607321677748072E-3</v>
+      </c>
+      <c r="AD39">
+        <f t="shared" si="0"/>
+        <v>4.6531664184730074E-3</v>
+      </c>
+      <c r="AE39">
+        <f t="shared" si="0"/>
+        <v>5.2714014465877314E-3</v>
+      </c>
+      <c r="AF39">
+        <f t="shared" si="0"/>
+        <v>5.3205170601939604E-3</v>
+      </c>
+      <c r="AG39">
+        <f t="shared" si="0"/>
+        <v>5.8628209483523458E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>392</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R40" s="40">
+        <f t="shared" si="0"/>
+        <v>9.7242419712146432E-3</v>
+      </c>
+      <c r="S40">
+        <f t="shared" si="0"/>
+        <v>7.5132189489586212E-3</v>
+      </c>
+      <c r="T40">
+        <f t="shared" si="0"/>
+        <v>1.0860573715810588E-2</v>
+      </c>
+      <c r="U40">
+        <f t="shared" si="0"/>
+        <v>1.1441949418010338E-2</v>
+      </c>
+      <c r="V40">
+        <f t="shared" si="0"/>
+        <v>1.283153001835859E-2</v>
+      </c>
+      <c r="W40">
+        <f t="shared" si="0"/>
+        <v>1.3360225068406877E-2</v>
+      </c>
+      <c r="X40">
+        <f t="shared" si="0"/>
+        <v>1.0989988311226363E-2</v>
+      </c>
+      <c r="Y40">
+        <f t="shared" si="0"/>
+        <v>1.2508625556740522E-2</v>
+      </c>
+      <c r="Z40">
+        <f t="shared" si="0"/>
+        <v>1.3570292630706115E-2</v>
+      </c>
+      <c r="AA40">
+        <f t="shared" si="0"/>
+        <v>1.291855507641188E-2</v>
+      </c>
+      <c r="AB40">
+        <f t="shared" si="0"/>
+        <v>1.1919634504776866E-2</v>
+      </c>
+      <c r="AC40">
+        <f t="shared" si="0"/>
+        <v>1.2009039574973046E-2</v>
+      </c>
+      <c r="AD40">
+        <f t="shared" si="0"/>
+        <v>1.2378613618830591E-2</v>
+      </c>
+      <c r="AE40">
+        <f t="shared" si="0"/>
+        <v>1.3266159960951065E-2</v>
+      </c>
+      <c r="AF40">
+        <f t="shared" si="0"/>
+        <v>1.4336034823448487E-2</v>
+      </c>
+      <c r="AG40">
+        <f t="shared" si="0"/>
+        <v>1.4228043926262661E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>393</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U41" s="40">
+        <f t="shared" si="0"/>
+        <v>-2.4938570033790953E-2</v>
+      </c>
+      <c r="V41">
+        <f t="shared" si="0"/>
+        <v>8.6249703145576777E-3</v>
+      </c>
+      <c r="W41">
+        <f t="shared" si="0"/>
+        <v>7.106033161488153E-3</v>
+      </c>
+      <c r="X41">
+        <f t="shared" si="0"/>
+        <v>5.8356360949897079E-3</v>
+      </c>
+      <c r="Y41">
+        <f t="shared" si="0"/>
+        <v>4.6383697827179155E-3</v>
+      </c>
+      <c r="Z41">
+        <f t="shared" si="0"/>
+        <v>3.4667173991164346E-3</v>
+      </c>
+      <c r="AA41">
+        <f t="shared" si="0"/>
+        <v>2.5932953826691761E-3</v>
+      </c>
+      <c r="AB41">
+        <f t="shared" si="0"/>
+        <v>2.0514439008993703E-3</v>
+      </c>
+      <c r="AC41">
+        <f t="shared" si="0"/>
+        <v>2.1101033005796392E-3</v>
+      </c>
+      <c r="AD41">
+        <f t="shared" si="0"/>
+        <v>1.5512976395118923E-3</v>
+      </c>
+      <c r="AE41">
+        <f t="shared" si="0"/>
+        <v>1.3433497210368248E-3</v>
+      </c>
+      <c r="AF41">
+        <f t="shared" si="0"/>
+        <v>9.5861568922733906E-4</v>
+      </c>
+      <c r="AG41">
+        <f t="shared" si="0"/>
+        <v>1.6461048565313129E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>394</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R42" s="40">
+        <f t="shared" si="0"/>
+        <v>-6.0164212105882499E-2</v>
+      </c>
+      <c r="S42">
+        <f t="shared" si="0"/>
+        <v>-5.0789147541473102E-2</v>
+      </c>
+      <c r="T42">
+        <f t="shared" si="0"/>
+        <v>-4.8766852133442125E-2</v>
+      </c>
+      <c r="U42">
+        <f t="shared" si="0"/>
+        <v>-4.7827285526285616E-2</v>
+      </c>
+      <c r="V42">
+        <f t="shared" si="0"/>
+        <v>-4.5007073348480253E-2</v>
+      </c>
+      <c r="W42">
+        <f t="shared" si="0"/>
+        <v>-4.1789482334194411E-2</v>
+      </c>
+      <c r="X42">
+        <f t="shared" si="0"/>
+        <v>-4.0473451088926388E-2</v>
+      </c>
+      <c r="Y42">
+        <f t="shared" si="0"/>
+        <v>-3.2623174219304815E-2</v>
+      </c>
+      <c r="Z42">
+        <f t="shared" si="0"/>
+        <v>-2.8081274085942749E-2</v>
+      </c>
+      <c r="AA42">
+        <f t="shared" si="0"/>
+        <v>-2.3299814231483727E-2</v>
+      </c>
+      <c r="AB42">
+        <f t="shared" si="0"/>
+        <v>-1.8375337237612671E-2</v>
+      </c>
+      <c r="AC42">
+        <f t="shared" si="0"/>
+        <v>-1.4160170505970671E-2</v>
+      </c>
+      <c r="AD42">
+        <f t="shared" si="0"/>
+        <v>-1.3825255034621283E-2</v>
+      </c>
+      <c r="AE42">
+        <f t="shared" si="0"/>
+        <v>-9.1511160990513634E-3</v>
+      </c>
+      <c r="AF42">
+        <f t="shared" si="0"/>
+        <v>-7.9442226963044281E-3</v>
+      </c>
+      <c r="AG42">
+        <f t="shared" si="0"/>
+        <v>-7.2741609153571651E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>395</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>0</v>
+      </c>
+      <c r="R43">
+        <v>0</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>0</v>
+      </c>
+      <c r="U43">
+        <v>0</v>
+      </c>
+      <c r="V43">
+        <v>0</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <v>0</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+      <c r="AA43">
+        <v>0</v>
+      </c>
+      <c r="AB43">
+        <v>0</v>
+      </c>
+      <c r="AC43">
+        <v>0</v>
+      </c>
+      <c r="AD43">
+        <v>0</v>
+      </c>
+      <c r="AE43">
+        <v>0</v>
+      </c>
+      <c r="AF43">
+        <v>0</v>
+      </c>
+      <c r="AG43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>396</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L44" s="40">
+        <f t="shared" si="1"/>
+        <v>-0.13960558648011645</v>
+      </c>
+      <c r="M44">
+        <f t="shared" si="1"/>
+        <v>-2.7469519460528176E-2</v>
+      </c>
+      <c r="N44">
+        <f t="shared" si="1"/>
+        <v>-2.0245495525095067E-2</v>
+      </c>
+      <c r="O44">
+        <f t="shared" si="1"/>
+        <v>-2.0048126227453302E-2</v>
+      </c>
+      <c r="P44">
+        <f t="shared" si="1"/>
+        <v>-1.9300930543978714E-2</v>
+      </c>
+      <c r="Q44">
+        <f t="shared" si="1"/>
+        <v>-1.3292164545920386E-2</v>
+      </c>
+      <c r="R44">
+        <f t="shared" si="1"/>
+        <v>-7.2661850436529082E-3</v>
+      </c>
+      <c r="S44">
+        <f t="shared" ref="D44:AG52" si="2">(S25-R25)/S25</f>
+        <v>-5.6452008779865701E-3</v>
+      </c>
+      <c r="T44">
+        <f t="shared" si="2"/>
+        <v>-6.621441328241281E-3</v>
+      </c>
+      <c r="U44">
+        <f t="shared" si="2"/>
+        <v>-6.5868944249434565E-3</v>
+      </c>
+      <c r="V44">
+        <f t="shared" si="2"/>
+        <v>-5.8751215049459857E-3</v>
+      </c>
+      <c r="W44">
+        <f t="shared" si="2"/>
+        <v>-3.5720946246432851E-3</v>
+      </c>
+      <c r="X44">
+        <f t="shared" si="2"/>
+        <v>-1.3718997579421077E-3</v>
+      </c>
+      <c r="Y44">
+        <f t="shared" si="2"/>
+        <v>-6.7563196745482621E-4</v>
+      </c>
+      <c r="Z44">
+        <f t="shared" si="2"/>
+        <v>-1.4900447733259933E-3</v>
+      </c>
+      <c r="AA44">
+        <f t="shared" si="2"/>
+        <v>-2.2726124943184523E-3</v>
+      </c>
+      <c r="AB44">
+        <f t="shared" si="2"/>
+        <v>-5.9512145557998443E-3</v>
+      </c>
+      <c r="AC44">
+        <f t="shared" si="2"/>
+        <v>-7.0971231434920155E-3</v>
+      </c>
+      <c r="AD44">
+        <f t="shared" si="2"/>
+        <v>-7.9714736175165654E-3</v>
+      </c>
+      <c r="AE44">
+        <f t="shared" si="2"/>
+        <v>-8.3051048909490322E-3</v>
+      </c>
+      <c r="AF44">
+        <f t="shared" si="2"/>
+        <v>-8.2689196476722193E-3</v>
+      </c>
+      <c r="AG44">
+        <f t="shared" si="2"/>
+        <v>-1.9525791302355676E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>397</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <f>(H26-G26)/H26</f>
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P45" s="40">
+        <f t="shared" si="2"/>
+        <v>-0.19180236782493484</v>
+      </c>
+      <c r="Q45">
+        <f t="shared" si="2"/>
+        <v>-8.213251516822978E-3</v>
+      </c>
+      <c r="R45">
+        <f t="shared" si="2"/>
+        <v>-7.5633243893331904E-3</v>
+      </c>
+      <c r="S45">
+        <f t="shared" si="2"/>
+        <v>-7.3653548404028152E-3</v>
+      </c>
+      <c r="T45">
+        <f t="shared" si="2"/>
+        <v>-6.435538965383604E-3</v>
+      </c>
+      <c r="U45">
+        <f t="shared" si="2"/>
+        <v>-5.4081804261044818E-3</v>
+      </c>
+      <c r="V45">
+        <f t="shared" si="2"/>
+        <v>-4.0436536855013522E-3</v>
+      </c>
+      <c r="W45">
+        <f t="shared" si="2"/>
+        <v>-2.092851354119421E-3</v>
+      </c>
+      <c r="X45">
+        <f t="shared" si="2"/>
+        <v>-7.6648158216066078E-4</v>
+      </c>
+      <c r="Y45">
+        <f t="shared" si="2"/>
+        <v>5.8788424024878625E-4</v>
+      </c>
+      <c r="Z45">
+        <f t="shared" si="2"/>
+        <v>1.6362682412782829E-3</v>
+      </c>
+      <c r="AA45">
+        <f t="shared" si="2"/>
+        <v>3.0762956790014754E-3</v>
+      </c>
+      <c r="AB45">
+        <f t="shared" si="2"/>
+        <v>3.8680278356706794E-3</v>
+      </c>
+      <c r="AC45">
+        <f t="shared" si="2"/>
+        <v>4.754915316803849E-3</v>
+      </c>
+      <c r="AD45">
+        <f t="shared" si="2"/>
+        <v>4.6540517369585872E-3</v>
+      </c>
+      <c r="AE45">
+        <f t="shared" si="2"/>
+        <v>5.2734629943871165E-3</v>
+      </c>
+      <c r="AF45">
+        <f t="shared" si="2"/>
+        <v>5.3232926512594998E-3</v>
+      </c>
+      <c r="AG45">
+        <f t="shared" si="2"/>
+        <v>5.8600304618323419E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>398</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R46" s="40">
+        <f t="shared" si="2"/>
+        <v>9.7216530492021287E-3</v>
+      </c>
+      <c r="S46">
+        <f t="shared" si="2"/>
+        <v>7.5117251547467253E-3</v>
+      </c>
+      <c r="T46">
+        <f t="shared" si="2"/>
+        <v>1.0859213673494354E-2</v>
+      </c>
+      <c r="U46">
+        <f t="shared" si="2"/>
+        <v>1.1444896868538204E-2</v>
+      </c>
+      <c r="V46">
+        <f t="shared" si="2"/>
+        <v>1.2833155180266956E-2</v>
+      </c>
+      <c r="W46">
+        <f t="shared" si="2"/>
+        <v>1.3357765070987676E-2</v>
+      </c>
+      <c r="X46">
+        <f t="shared" si="2"/>
+        <v>1.0987218491808948E-2</v>
+      </c>
+      <c r="Y46">
+        <f t="shared" si="2"/>
+        <v>1.2509309941243973E-2</v>
+      </c>
+      <c r="Z46">
+        <f t="shared" si="2"/>
+        <v>1.3571309871925239E-2</v>
+      </c>
+      <c r="AA46">
+        <f t="shared" si="2"/>
+        <v>1.2916862714627518E-2</v>
+      </c>
+      <c r="AB46">
+        <f t="shared" si="2"/>
+        <v>1.1922618142113288E-2</v>
+      </c>
+      <c r="AC46">
+        <f t="shared" si="2"/>
+        <v>1.2008405462426822E-2</v>
+      </c>
+      <c r="AD46">
+        <f t="shared" si="2"/>
+        <v>1.2379966761093247E-2</v>
+      </c>
+      <c r="AE46">
+        <f t="shared" si="2"/>
+        <v>1.3262955302375895E-2</v>
+      </c>
+      <c r="AF46">
+        <f t="shared" si="2"/>
+        <v>1.4339703086652179E-2</v>
+      </c>
+      <c r="AG46">
+        <f t="shared" si="2"/>
+        <v>1.4228769566553187E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>399</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <f>(J28-I28)/J28</f>
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O47">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P47">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R47">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S47">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U47" s="40">
+        <f t="shared" si="2"/>
+        <v>0.10524150504037405</v>
+      </c>
+      <c r="V47">
+        <f t="shared" si="2"/>
+        <v>1.3104716892463433E-3</v>
+      </c>
+      <c r="W47">
+        <f t="shared" si="2"/>
+        <v>-2.739851134755068E-4</v>
+      </c>
+      <c r="X47">
+        <f t="shared" si="2"/>
+        <v>-2.5340521675436441E-3</v>
+      </c>
+      <c r="Y47">
+        <f t="shared" si="2"/>
+        <v>-3.2230264028810006E-3</v>
+      </c>
+      <c r="Z47">
+        <f t="shared" si="2"/>
+        <v>-3.581615278666584E-3</v>
+      </c>
+      <c r="AA47">
+        <f t="shared" si="2"/>
+        <v>-3.8157343247347555E-3</v>
+      </c>
+      <c r="AB47">
+        <f t="shared" si="2"/>
+        <v>-4.0552874499237487E-3</v>
+      </c>
+      <c r="AC47">
+        <f t="shared" si="2"/>
+        <v>-3.8514503289094836E-3</v>
+      </c>
+      <c r="AD47">
+        <f t="shared" si="2"/>
+        <v>-3.9548115956397727E-3</v>
+      </c>
+      <c r="AE47">
+        <f t="shared" si="2"/>
+        <v>-4.2537420760916326E-3</v>
+      </c>
+      <c r="AF47">
+        <f t="shared" si="2"/>
+        <v>-4.4002444580254051E-3</v>
+      </c>
+      <c r="AG47">
+        <f t="shared" si="2"/>
+        <v>-4.3888651728342422E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>400</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O48">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P48">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R48" s="40">
+        <f t="shared" si="2"/>
+        <v>-3.8124667768749433E-2</v>
+      </c>
+      <c r="S48">
+        <f t="shared" si="2"/>
+        <v>1.9390917634657982E-3</v>
+      </c>
+      <c r="T48">
+        <f t="shared" si="2"/>
+        <v>4.9880775622751841E-4</v>
+      </c>
+      <c r="U48">
+        <f t="shared" si="2"/>
+        <v>-4.6405984739662955E-4</v>
+      </c>
+      <c r="V48">
+        <f t="shared" si="2"/>
+        <v>-1.3719054774640512E-3</v>
+      </c>
+      <c r="W48">
+        <f t="shared" si="2"/>
+        <v>-4.0573872348806496E-3</v>
+      </c>
+      <c r="X48">
+        <f t="shared" si="2"/>
+        <v>-5.9376610450518922E-3</v>
+      </c>
+      <c r="Y48">
+        <f t="shared" si="2"/>
+        <v>-7.0650857216149054E-3</v>
+      </c>
+      <c r="Z48">
+        <f t="shared" si="2"/>
+        <v>-9.0935238003930358E-3</v>
+      </c>
+      <c r="AA48">
+        <f t="shared" si="2"/>
+        <v>-1.0096852798514473E-2</v>
+      </c>
+      <c r="AB48">
+        <f t="shared" si="2"/>
+        <v>-1.2149236139444283E-2</v>
+      </c>
+      <c r="AC48">
+        <f t="shared" si="2"/>
+        <v>-1.3812583611468922E-2</v>
+      </c>
+      <c r="AD48">
+        <f t="shared" si="2"/>
+        <v>-1.4191267803647762E-2</v>
+      </c>
+      <c r="AE48">
+        <f t="shared" si="2"/>
+        <v>-1.4214109851751625E-2</v>
+      </c>
+      <c r="AF48">
+        <f t="shared" si="2"/>
+        <v>-1.4366475372867433E-2</v>
+      </c>
+      <c r="AG48">
+        <f t="shared" si="2"/>
+        <v>-1.4001214297166373E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>401</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>0</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>0</v>
+      </c>
+      <c r="R49">
+        <v>0</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>0</v>
+      </c>
+      <c r="U49">
+        <v>0</v>
+      </c>
+      <c r="V49">
+        <v>0</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <v>0</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+      <c r="AA49">
+        <v>0</v>
+      </c>
+      <c r="AB49">
+        <v>0</v>
+      </c>
+      <c r="AC49">
+        <v>0</v>
+      </c>
+      <c r="AD49">
+        <v>0</v>
+      </c>
+      <c r="AE49">
+        <v>0</v>
+      </c>
+      <c r="AF49">
+        <v>0</v>
+      </c>
+      <c r="AG49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>402</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L50" s="40">
+        <f t="shared" si="2"/>
+        <v>-1.9792905754567953E-2</v>
+      </c>
+      <c r="M50">
+        <f t="shared" si="2"/>
+        <v>-1.7540726630553324E-2</v>
+      </c>
+      <c r="N50">
+        <f t="shared" si="2"/>
+        <v>0.99895729625721563</v>
+      </c>
+      <c r="O50">
+        <f t="shared" si="2"/>
+        <v>-6.2914333278721132E-2</v>
+      </c>
+      <c r="P50">
+        <f t="shared" si="2"/>
+        <v>-6.887412704121329E-2</v>
+      </c>
+      <c r="Q50">
+        <f t="shared" si="2"/>
+        <v>-6.7914932499259492E-2</v>
+      </c>
+      <c r="R50">
+        <f t="shared" si="2"/>
+        <v>-6.8353364433723085E-2</v>
+      </c>
+      <c r="S50">
+        <f t="shared" si="2"/>
+        <v>-6.7635104858463496E-2</v>
+      </c>
+      <c r="T50">
+        <f t="shared" si="2"/>
+        <v>-6.536831926595435E-2</v>
+      </c>
+      <c r="U50">
+        <f t="shared" si="2"/>
+        <v>-6.2236832086112449E-2</v>
+      </c>
+      <c r="V50">
+        <f t="shared" si="2"/>
+        <v>-5.7655005551823964E-2</v>
+      </c>
+      <c r="W50">
+        <f t="shared" si="2"/>
+        <v>-5.1776744890179964E-2</v>
+      </c>
+      <c r="X50">
+        <f t="shared" si="2"/>
+        <v>-4.6042907774677622E-2</v>
+      </c>
+      <c r="Y50">
+        <f t="shared" si="2"/>
+        <v>-4.1814789354807182E-2</v>
+      </c>
+      <c r="Z50">
+        <f t="shared" si="2"/>
+        <v>-3.8778478933698957E-2</v>
+      </c>
+      <c r="AA50">
+        <f t="shared" si="2"/>
+        <v>-3.7032413676370994E-2</v>
+      </c>
+      <c r="AB50">
+        <f t="shared" si="2"/>
+        <v>-3.6095875696554404E-2</v>
+      </c>
+      <c r="AC50">
+        <f t="shared" si="2"/>
+        <v>-3.4462114804173466E-2</v>
+      </c>
+      <c r="AD50">
+        <f t="shared" si="2"/>
+        <v>-3.1872724379674047E-2</v>
+      </c>
+      <c r="AE50">
+        <f t="shared" si="2"/>
+        <v>-3.0230270770654991E-2</v>
+      </c>
+      <c r="AF50">
+        <f t="shared" si="2"/>
+        <v>-2.954746829945068E-2</v>
+      </c>
+      <c r="AG50">
+        <f t="shared" si="2"/>
+        <v>-2.755632405522998E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>403</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O51">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P51" s="40">
+        <f t="shared" si="2"/>
+        <v>3.5064533363327002E-2</v>
+      </c>
+      <c r="Q51">
+        <f t="shared" si="2"/>
+        <v>1.4875346260387876E-2</v>
+      </c>
+      <c r="R51">
+        <f t="shared" si="2"/>
+        <v>1.4060785929199853E-2</v>
+      </c>
+      <c r="S51">
+        <f t="shared" si="2"/>
+        <v>1.2331858725363387E-2</v>
+      </c>
+      <c r="T51">
+        <f t="shared" si="2"/>
+        <v>1.1079297896178191E-2</v>
+      </c>
+      <c r="U51">
+        <f t="shared" si="2"/>
+        <v>9.1802932055258801E-3</v>
+      </c>
+      <c r="V51">
+        <f t="shared" si="2"/>
+        <v>7.4417384460670867E-3</v>
+      </c>
+      <c r="W51">
+        <f t="shared" si="2"/>
+        <v>5.7081248396898846E-3</v>
+      </c>
+      <c r="X51">
+        <f t="shared" si="2"/>
+        <v>5.1811902898092647E-3</v>
+      </c>
+      <c r="Y51">
+        <f t="shared" si="2"/>
+        <v>4.8547658909658224E-3</v>
+      </c>
+      <c r="Z51">
+        <f t="shared" si="2"/>
+        <v>5.2573669496568873E-3</v>
+      </c>
+      <c r="AA51">
+        <f t="shared" si="2"/>
+        <v>5.2383446830800429E-3</v>
+      </c>
+      <c r="AB51">
+        <f t="shared" si="2"/>
+        <v>5.9143790960356464E-3</v>
+      </c>
+      <c r="AC51">
+        <f t="shared" si="2"/>
+        <v>6.0762135595502633E-3</v>
+      </c>
+      <c r="AD51">
+        <f t="shared" si="2"/>
+        <v>6.7000764887085989E-3</v>
+      </c>
+      <c r="AE51">
+        <f t="shared" si="2"/>
+        <v>7.2490228134672796E-3</v>
+      </c>
+      <c r="AF51">
+        <f t="shared" si="2"/>
+        <v>7.7078272326759458E-3</v>
+      </c>
+      <c r="AG51">
+        <f t="shared" si="2"/>
+        <v>7.7380660554655653E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>404</v>
+      </c>
+      <c r="C52">
+        <f t="shared" ref="C52" si="3">(C33-B33)/C33</f>
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R52" s="40">
+        <f t="shared" si="2"/>
+        <v>6.6547290419024269E-2</v>
+      </c>
+      <c r="S52">
+        <f t="shared" si="2"/>
+        <v>5.2730644987533677E-5</v>
+      </c>
+      <c r="T52">
+        <f t="shared" si="2"/>
+        <v>8.9138427001013119E-3</v>
+      </c>
+      <c r="U52">
+        <f t="shared" si="2"/>
+        <v>1.2172156444644058E-2</v>
+      </c>
+      <c r="V52">
+        <f t="shared" si="2"/>
+        <v>1.4155097561083421E-2</v>
+      </c>
+      <c r="W52">
+        <f t="shared" si="2"/>
+        <v>1.4290886724219966E-2</v>
+      </c>
+      <c r="X52">
+        <f t="shared" si="2"/>
+        <v>1.5412830639255557E-2</v>
+      </c>
+      <c r="Y52">
+        <f t="shared" si="2"/>
+        <v>1.5320493300852599E-2</v>
+      </c>
+      <c r="Z52">
+        <f t="shared" si="2"/>
+        <v>1.617735170760945E-2</v>
+      </c>
+      <c r="AA52">
+        <f t="shared" si="2"/>
+        <v>1.7097005723539987E-2</v>
+      </c>
+      <c r="AB52">
+        <f t="shared" si="2"/>
+        <v>1.7720018880999614E-2</v>
+      </c>
+      <c r="AC52">
+        <f t="shared" si="2"/>
+        <v>1.7746867909637955E-2</v>
+      </c>
+      <c r="AD52">
+        <f t="shared" si="2"/>
+        <v>1.819301800318451E-2</v>
+      </c>
+      <c r="AE52">
+        <f t="shared" si="2"/>
+        <v>1.8590512546077024E-2</v>
+      </c>
+      <c r="AF52">
+        <f t="shared" si="2"/>
+        <v>1.8562606116014013E-2</v>
+      </c>
+      <c r="AG52">
+        <f t="shared" si="2"/>
+        <v>1.815597172277467E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:33" ht="16" x14ac:dyDescent="0.2">
+      <c r="A55" s="37" t="s">
+        <v>405</v>
+      </c>
+      <c r="B55" s="37" t="s">
+        <v>353</v>
+      </c>
+      <c r="C55" s="37" t="s">
+        <v>354</v>
+      </c>
+      <c r="D55" s="37" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="56" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>3</v>
+      </c>
+      <c r="B56">
+        <f>U35</f>
+        <v>-2.4936945043194669E-2</v>
+      </c>
+      <c r="C56">
+        <f>U41</f>
+        <v>-2.4938570033790953E-2</v>
+      </c>
+      <c r="D56">
+        <f>U47</f>
+        <v>0.10524150504037405</v>
+      </c>
+    </row>
+    <row r="57" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>4</v>
+      </c>
+      <c r="B57">
+        <f>R36</f>
+        <v>-6.0165524563266029E-2</v>
+      </c>
+      <c r="C57">
+        <f>R42</f>
+        <v>-6.0164212105882499E-2</v>
+      </c>
+      <c r="D57">
+        <f>R48</f>
+        <v>-3.8124667768749433E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B58">
+        <v>0</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>6</v>
+      </c>
+      <c r="B59">
+        <f>L38</f>
+        <v>-0.1396031410241059</v>
+      </c>
+      <c r="C59">
+        <f>L44</f>
+        <v>-0.13960558648011645</v>
+      </c>
+      <c r="D59">
+        <f>L50</f>
+        <v>-1.9792905754567953E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>7</v>
+      </c>
+      <c r="B60">
+        <f>P39</f>
+        <v>-0.19180135132192966</v>
+      </c>
+      <c r="C60">
+        <f>P45</f>
+        <v>-0.19180236782493484</v>
+      </c>
+      <c r="D60">
+        <f>P51</f>
+        <v>3.5064533363327002E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>8</v>
+      </c>
+      <c r="B61">
+        <f>R40</f>
+        <v>9.7242419712146432E-3</v>
+      </c>
+      <c r="C61">
+        <f>R46</f>
+        <v>9.7216530492021287E-3</v>
+      </c>
+      <c r="D61">
+        <f>R52</f>
+        <v>6.6547290419024269E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:33" ht="16" x14ac:dyDescent="0.2">
+      <c r="A63" s="37" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="64" spans="1:33" ht="16" x14ac:dyDescent="0.2">
+      <c r="B64" s="37" t="s">
+        <v>353</v>
+      </c>
+      <c r="C64" s="37" t="s">
+        <v>354</v>
+      </c>
+      <c r="D64" s="37" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>3</v>
+      </c>
+      <c r="B65">
+        <f t="shared" ref="B65:D70" si="4">C5*(1-B56)</f>
+        <v>5.3944049739115506E-2</v>
+      </c>
+      <c r="C65">
+        <f t="shared" si="4"/>
+        <v>5.3944135264936362E-2</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="4"/>
+        <v>4.70925523662961E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>4</v>
+      </c>
+      <c r="B66">
+        <f t="shared" si="4"/>
+        <v>6.6260345285204122E-2</v>
+      </c>
+      <c r="C66">
+        <f t="shared" si="4"/>
+        <v>6.6260263256617657E-2</v>
+      </c>
+      <c r="D66">
+        <f t="shared" si="4"/>
+        <v>6.4882791735546841E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>5</v>
+      </c>
+      <c r="B67">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="C67">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>6</v>
+      </c>
+      <c r="B68">
+        <f t="shared" si="4"/>
+        <v>0.12662257122490064</v>
+      </c>
+      <c r="C68">
+        <f t="shared" si="4"/>
+        <v>0.12662284294223516</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="4"/>
+        <v>0.11331032286161867</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>7</v>
+      </c>
+      <c r="B69">
+        <f t="shared" si="4"/>
+        <v>8.51286679515664E-2</v>
+      </c>
+      <c r="C69">
+        <f t="shared" si="4"/>
+        <v>8.5128740558923902E-2</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="4"/>
+        <v>6.8923961902619499E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>8</v>
+      </c>
+      <c r="B70">
+        <f t="shared" si="4"/>
+        <v>6.6018383868585689E-2</v>
+      </c>
+      <c r="C70">
+        <f t="shared" si="4"/>
+        <v>6.601855646338653E-2</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="4"/>
+        <v>6.2230180638731709E-2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>387</v>
+      </c>
+      <c r="B124" t="e">
+        <f t="shared" ref="B124:AG124" si="5">B16/B81</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C124" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D124" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E124" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F124" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G124" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H124" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I124" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J124" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K124" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L124" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M124" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N124" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O124" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P124" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q124" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R124" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S124" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T124" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U124" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V124" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W124" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X124" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y124" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z124" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA124" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB124" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC124" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD124" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE124" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF124" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG124" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="125" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>388</v>
+      </c>
+      <c r="B125" t="e">
+        <f t="shared" ref="B125:AG125" si="6">B17/B82</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C125" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D125" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E125" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F125" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G125" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H125" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I125" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J125" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K125" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L125" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M125" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N125" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O125" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P125" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q125" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R125" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S125" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T125" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U125" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V125" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W125" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X125" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y125" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z125" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA125" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB125" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC125" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD125" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE125" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF125" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG125" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="126" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>389</v>
+      </c>
+      <c r="B126">
+        <v>0</v>
+      </c>
+      <c r="C126">
+        <v>0</v>
+      </c>
+      <c r="D126">
+        <v>0</v>
+      </c>
+      <c r="E126">
+        <v>0</v>
+      </c>
+      <c r="F126">
+        <v>0</v>
+      </c>
+      <c r="G126">
+        <v>0</v>
+      </c>
+      <c r="H126">
+        <v>0</v>
+      </c>
+      <c r="I126">
+        <v>0</v>
+      </c>
+      <c r="J126">
+        <v>0</v>
+      </c>
+      <c r="K126">
+        <v>0</v>
+      </c>
+      <c r="L126">
+        <v>0</v>
+      </c>
+      <c r="M126">
+        <v>0</v>
+      </c>
+      <c r="N126">
+        <v>0</v>
+      </c>
+      <c r="O126">
+        <v>0</v>
+      </c>
+      <c r="P126">
+        <v>0</v>
+      </c>
+      <c r="Q126">
+        <v>0</v>
+      </c>
+      <c r="R126">
+        <v>0</v>
+      </c>
+      <c r="S126">
+        <v>0</v>
+      </c>
+      <c r="T126">
+        <v>0</v>
+      </c>
+      <c r="U126">
+        <v>0</v>
+      </c>
+      <c r="V126">
+        <v>0</v>
+      </c>
+      <c r="W126">
+        <v>0</v>
+      </c>
+      <c r="X126">
+        <v>0</v>
+      </c>
+      <c r="Y126">
+        <v>0</v>
+      </c>
+      <c r="Z126">
+        <v>0</v>
+      </c>
+      <c r="AA126">
+        <v>0</v>
+      </c>
+      <c r="AB126">
+        <v>0</v>
+      </c>
+      <c r="AC126">
+        <v>0</v>
+      </c>
+      <c r="AD126">
+        <v>0</v>
+      </c>
+      <c r="AE126">
+        <v>0</v>
+      </c>
+      <c r="AF126">
+        <v>0</v>
+      </c>
+      <c r="AG126" t="e">
+        <f t="shared" ref="AG126:AG141" si="7">AG18/AG83</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="127" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>390</v>
+      </c>
+      <c r="B127" t="e">
+        <f t="shared" ref="B127:AF127" si="8">B19/B84</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C127" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D127" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E127" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F127" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G127" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H127" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I127" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J127" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K127" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L127" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M127" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N127" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O127" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P127" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q127" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R127" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S127" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T127" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U127" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V127" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W127" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X127" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y127" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z127" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA127" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB127" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC127" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD127" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE127" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF127" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG127" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="128" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>391</v>
+      </c>
+      <c r="B128" t="e">
+        <f t="shared" ref="B128:AF128" si="9">B20/B85</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C128" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D128" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E128" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F128" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G128" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H128" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I128" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J128" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K128" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L128" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M128" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N128" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O128" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P128" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q128" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R128" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S128" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T128" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U128" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V128" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W128" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X128" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y128" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z128" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA128" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB128" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC128" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD128" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE128" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF128" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG128" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="129" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>392</v>
+      </c>
+      <c r="B129" t="e">
+        <f t="shared" ref="B129:AF129" si="10">B21/B86</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C129" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D129" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E129" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F129" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G129" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H129" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I129" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J129" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K129" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L129" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M129" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N129" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O129" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P129" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q129" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R129" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S129" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T129" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U129" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V129" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W129" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X129" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y129" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z129" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA129" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB129" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC129" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD129" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE129" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF129" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG129" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="130" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>393</v>
+      </c>
+      <c r="B130" t="e">
+        <f t="shared" ref="B130:AF130" si="11">B22/B87</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C130" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D130" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E130" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F130" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G130" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H130" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I130" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J130" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K130" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L130" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M130" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N130" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O130" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P130" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q130" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R130" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S130" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T130" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U130" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V130" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W130" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X130" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y130" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z130" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA130" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB130" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC130" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD130" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE130" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF130" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG130" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="131" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>394</v>
+      </c>
+      <c r="B131" t="e">
+        <f t="shared" ref="B131:AF131" si="12">B23/B88</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C131" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D131" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E131" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F131" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G131" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H131" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I131" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J131" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K131" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L131" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M131" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N131" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O131" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P131" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q131" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R131" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S131" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T131" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U131" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V131" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W131" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X131" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y131" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z131" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA131" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB131" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC131" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD131" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE131" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF131" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG131" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="132" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>395</v>
+      </c>
+      <c r="B132">
+        <v>0</v>
+      </c>
+      <c r="C132">
+        <v>0</v>
+      </c>
+      <c r="D132">
+        <v>0</v>
+      </c>
+      <c r="E132">
+        <v>0</v>
+      </c>
+      <c r="F132">
+        <v>0</v>
+      </c>
+      <c r="G132">
+        <v>0</v>
+      </c>
+      <c r="H132">
+        <v>0</v>
+      </c>
+      <c r="I132">
+        <v>0</v>
+      </c>
+      <c r="J132">
+        <v>0</v>
+      </c>
+      <c r="K132">
+        <v>0</v>
+      </c>
+      <c r="L132">
+        <v>0</v>
+      </c>
+      <c r="M132">
+        <v>0</v>
+      </c>
+      <c r="N132">
+        <v>0</v>
+      </c>
+      <c r="O132">
+        <v>0</v>
+      </c>
+      <c r="P132">
+        <v>0</v>
+      </c>
+      <c r="Q132">
+        <v>0</v>
+      </c>
+      <c r="R132">
+        <v>0</v>
+      </c>
+      <c r="S132">
+        <v>0</v>
+      </c>
+      <c r="T132">
+        <v>0</v>
+      </c>
+      <c r="U132">
+        <v>0</v>
+      </c>
+      <c r="V132">
+        <v>0</v>
+      </c>
+      <c r="W132">
+        <v>0</v>
+      </c>
+      <c r="X132">
+        <v>0</v>
+      </c>
+      <c r="Y132">
+        <v>0</v>
+      </c>
+      <c r="Z132">
+        <v>0</v>
+      </c>
+      <c r="AA132">
+        <v>0</v>
+      </c>
+      <c r="AB132">
+        <v>0</v>
+      </c>
+      <c r="AC132">
+        <v>0</v>
+      </c>
+      <c r="AD132">
+        <v>0</v>
+      </c>
+      <c r="AE132">
+        <v>0</v>
+      </c>
+      <c r="AF132">
+        <v>0</v>
+      </c>
+      <c r="AG132" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="133" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>396</v>
+      </c>
+      <c r="B133" t="e">
+        <f t="shared" ref="B133:AF133" si="13">B25/B90</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C133" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D133" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E133" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F133" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G133" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H133" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I133" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J133" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K133" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L133" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M133" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N133" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O133" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P133" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q133" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R133" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S133" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T133" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U133" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V133" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W133" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X133" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y133" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z133" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA133" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB133" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC133" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD133" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE133" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF133" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG133" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="134" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>397</v>
+      </c>
+      <c r="B134" t="e">
+        <f t="shared" ref="B134:AF134" si="14">B26/B91</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C134" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D134" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E134" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F134" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G134" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H134" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I134" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J134" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K134" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L134" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M134" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N134" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O134" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P134" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q134" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R134" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S134" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T134" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U134" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V134" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W134" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X134" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y134" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z134" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA134" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB134" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC134" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD134" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE134" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF134" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG134" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="135" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>398</v>
+      </c>
+      <c r="B135" t="e">
+        <f t="shared" ref="B135:AF135" si="15">B27/B92</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C135" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D135" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E135" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F135" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G135" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H135" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I135" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J135" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K135" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L135" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M135" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N135" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O135" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P135" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q135" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R135" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S135" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T135" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U135" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V135" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W135" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X135" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y135" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z135" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA135" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB135" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC135" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD135" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE135" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF135" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG135" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="136" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>399</v>
+      </c>
+      <c r="B136" t="e">
+        <f t="shared" ref="B136:AF136" si="16">B28/B93</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C136" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D136" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E136" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F136" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G136" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H136" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I136" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J136" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K136" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L136" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M136" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N136" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O136" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P136" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q136" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R136" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S136" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T136" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U136" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V136" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W136" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X136" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y136" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z136" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA136" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB136" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC136" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD136" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE136" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF136" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG136" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="137" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>400</v>
+      </c>
+      <c r="B137" t="e">
+        <f t="shared" ref="B137:AF137" si="17">B29/B94</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C137" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D137" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E137" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F137" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G137" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H137" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I137" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J137" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K137" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L137" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M137" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N137" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O137" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P137" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q137" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R137" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S137" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T137" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U137" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V137" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W137" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X137" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y137" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z137" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA137" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB137" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC137" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD137" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE137" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF137" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG137" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="138" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>401</v>
+      </c>
+      <c r="B138">
+        <v>0</v>
+      </c>
+      <c r="C138">
+        <v>0</v>
+      </c>
+      <c r="D138">
+        <v>0</v>
+      </c>
+      <c r="E138">
+        <v>0</v>
+      </c>
+      <c r="F138">
+        <v>0</v>
+      </c>
+      <c r="G138">
+        <v>0</v>
+      </c>
+      <c r="H138">
+        <v>0</v>
+      </c>
+      <c r="I138">
+        <v>0</v>
+      </c>
+      <c r="J138">
+        <v>0</v>
+      </c>
+      <c r="K138">
+        <v>0</v>
+      </c>
+      <c r="L138">
+        <v>0</v>
+      </c>
+      <c r="M138">
+        <v>0</v>
+      </c>
+      <c r="N138">
+        <v>0</v>
+      </c>
+      <c r="O138">
+        <v>0</v>
+      </c>
+      <c r="P138">
+        <v>0</v>
+      </c>
+      <c r="Q138">
+        <v>0</v>
+      </c>
+      <c r="R138">
+        <v>0</v>
+      </c>
+      <c r="S138">
+        <v>0</v>
+      </c>
+      <c r="T138">
+        <v>0</v>
+      </c>
+      <c r="U138">
+        <v>0</v>
+      </c>
+      <c r="V138">
+        <v>0</v>
+      </c>
+      <c r="W138">
+        <v>0</v>
+      </c>
+      <c r="X138">
+        <v>0</v>
+      </c>
+      <c r="Y138">
+        <v>0</v>
+      </c>
+      <c r="Z138">
+        <v>0</v>
+      </c>
+      <c r="AA138">
+        <v>0</v>
+      </c>
+      <c r="AB138">
+        <v>0</v>
+      </c>
+      <c r="AC138">
+        <v>0</v>
+      </c>
+      <c r="AD138">
+        <v>0</v>
+      </c>
+      <c r="AE138">
+        <v>0</v>
+      </c>
+      <c r="AF138">
+        <v>0</v>
+      </c>
+      <c r="AG138" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="139" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>402</v>
+      </c>
+      <c r="B139" t="e">
+        <f t="shared" ref="B139:AF139" si="18">B31/B96</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C139" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D139" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E139" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F139" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G139" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H139" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I139" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J139" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K139" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L139" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M139" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N139" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O139" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P139" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q139" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R139" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S139" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T139" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U139" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V139" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W139" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X139" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y139" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z139" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA139" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB139" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC139" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD139" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE139" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF139" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG139" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="140" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>403</v>
+      </c>
+      <c r="B140" t="e">
+        <f t="shared" ref="B140:AF140" si="19">B32/B97</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C140" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D140" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E140" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F140" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G140" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H140" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I140" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J140" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K140" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L140" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M140" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N140" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O140" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P140" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q140" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R140" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S140" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T140" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U140" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V140" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W140" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X140" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y140" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z140" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA140" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB140" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC140" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD140" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE140" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF140" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG140" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="141" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>404</v>
+      </c>
+      <c r="B141" t="e">
+        <f t="shared" ref="B141:AF141" si="20">B33/B98</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C141" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D141" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E141" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F141" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G141" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H141" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I141" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J141" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K141" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L141" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M141" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N141" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O141" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P141" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q141" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R141" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S141" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T141" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U141" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V141" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W141" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X141" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y141" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z141" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA141" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB141" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC141" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD141" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE141" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF141" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG141" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F46" sqref="F46"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2047,7 +9013,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AM162"/>
   <sheetViews>
@@ -14210,46 +21176,46 @@
     </row>
     <row r="141" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="142" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B142" s="36" t="s">
+      <c r="B142" s="41" t="s">
         <v>197</v>
       </c>
-      <c r="C142" s="36"/>
-      <c r="D142" s="36"/>
-      <c r="E142" s="36"/>
-      <c r="F142" s="36"/>
-      <c r="G142" s="36"/>
-      <c r="H142" s="36"/>
-      <c r="I142" s="36"/>
-      <c r="J142" s="36"/>
-      <c r="K142" s="36"/>
-      <c r="L142" s="36"/>
-      <c r="M142" s="36"/>
-      <c r="N142" s="36"/>
-      <c r="O142" s="36"/>
-      <c r="P142" s="36"/>
-      <c r="Q142" s="36"/>
-      <c r="R142" s="36"/>
-      <c r="S142" s="36"/>
-      <c r="T142" s="36"/>
-      <c r="U142" s="36"/>
-      <c r="V142" s="36"/>
-      <c r="W142" s="36"/>
-      <c r="X142" s="36"/>
-      <c r="Y142" s="36"/>
-      <c r="Z142" s="36"/>
-      <c r="AA142" s="36"/>
-      <c r="AB142" s="36"/>
-      <c r="AC142" s="36"/>
-      <c r="AD142" s="36"/>
-      <c r="AE142" s="36"/>
-      <c r="AF142" s="36"/>
-      <c r="AG142" s="36"/>
-      <c r="AH142" s="36"/>
-      <c r="AI142" s="36"/>
-      <c r="AJ142" s="36"/>
-      <c r="AK142" s="36"/>
-      <c r="AL142" s="36"/>
-      <c r="AM142" s="36"/>
+      <c r="C142" s="41"/>
+      <c r="D142" s="41"/>
+      <c r="E142" s="41"/>
+      <c r="F142" s="41"/>
+      <c r="G142" s="41"/>
+      <c r="H142" s="41"/>
+      <c r="I142" s="41"/>
+      <c r="J142" s="41"/>
+      <c r="K142" s="41"/>
+      <c r="L142" s="41"/>
+      <c r="M142" s="41"/>
+      <c r="N142" s="41"/>
+      <c r="O142" s="41"/>
+      <c r="P142" s="41"/>
+      <c r="Q142" s="41"/>
+      <c r="R142" s="41"/>
+      <c r="S142" s="41"/>
+      <c r="T142" s="41"/>
+      <c r="U142" s="41"/>
+      <c r="V142" s="41"/>
+      <c r="W142" s="41"/>
+      <c r="X142" s="41"/>
+      <c r="Y142" s="41"/>
+      <c r="Z142" s="41"/>
+      <c r="AA142" s="41"/>
+      <c r="AB142" s="41"/>
+      <c r="AC142" s="41"/>
+      <c r="AD142" s="41"/>
+      <c r="AE142" s="41"/>
+      <c r="AF142" s="41"/>
+      <c r="AG142" s="41"/>
+      <c r="AH142" s="41"/>
+      <c r="AI142" s="41"/>
+      <c r="AJ142" s="41"/>
+      <c r="AK142" s="41"/>
+      <c r="AL142" s="41"/>
+      <c r="AM142" s="41"/>
     </row>
     <row r="143" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B143" s="7" t="s">
@@ -14360,7 +21326,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AM139"/>
   <sheetViews>
@@ -23895,46 +30861,46 @@
     </row>
     <row r="117" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="118" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B118" s="36" t="s">
+      <c r="B118" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="C118" s="36"/>
-      <c r="D118" s="36"/>
-      <c r="E118" s="36"/>
-      <c r="F118" s="36"/>
-      <c r="G118" s="36"/>
-      <c r="H118" s="36"/>
-      <c r="I118" s="36"/>
-      <c r="J118" s="36"/>
-      <c r="K118" s="36"/>
-      <c r="L118" s="36"/>
-      <c r="M118" s="36"/>
-      <c r="N118" s="36"/>
-      <c r="O118" s="36"/>
-      <c r="P118" s="36"/>
-      <c r="Q118" s="36"/>
-      <c r="R118" s="36"/>
-      <c r="S118" s="36"/>
-      <c r="T118" s="36"/>
-      <c r="U118" s="36"/>
-      <c r="V118" s="36"/>
-      <c r="W118" s="36"/>
-      <c r="X118" s="36"/>
-      <c r="Y118" s="36"/>
-      <c r="Z118" s="36"/>
-      <c r="AA118" s="36"/>
-      <c r="AB118" s="36"/>
-      <c r="AC118" s="36"/>
-      <c r="AD118" s="36"/>
-      <c r="AE118" s="36"/>
-      <c r="AF118" s="36"/>
-      <c r="AG118" s="36"/>
-      <c r="AH118" s="36"/>
-      <c r="AI118" s="36"/>
-      <c r="AJ118" s="36"/>
-      <c r="AK118" s="36"/>
-      <c r="AL118" s="36"/>
-      <c r="AM118" s="36"/>
+      <c r="C118" s="41"/>
+      <c r="D118" s="41"/>
+      <c r="E118" s="41"/>
+      <c r="F118" s="41"/>
+      <c r="G118" s="41"/>
+      <c r="H118" s="41"/>
+      <c r="I118" s="41"/>
+      <c r="J118" s="41"/>
+      <c r="K118" s="41"/>
+      <c r="L118" s="41"/>
+      <c r="M118" s="41"/>
+      <c r="N118" s="41"/>
+      <c r="O118" s="41"/>
+      <c r="P118" s="41"/>
+      <c r="Q118" s="41"/>
+      <c r="R118" s="41"/>
+      <c r="S118" s="41"/>
+      <c r="T118" s="41"/>
+      <c r="U118" s="41"/>
+      <c r="V118" s="41"/>
+      <c r="W118" s="41"/>
+      <c r="X118" s="41"/>
+      <c r="Y118" s="41"/>
+      <c r="Z118" s="41"/>
+      <c r="AA118" s="41"/>
+      <c r="AB118" s="41"/>
+      <c r="AC118" s="41"/>
+      <c r="AD118" s="41"/>
+      <c r="AE118" s="41"/>
+      <c r="AF118" s="41"/>
+      <c r="AG118" s="41"/>
+      <c r="AH118" s="41"/>
+      <c r="AI118" s="41"/>
+      <c r="AJ118" s="41"/>
+      <c r="AK118" s="41"/>
+      <c r="AL118" s="41"/>
+      <c r="AM118" s="41"/>
     </row>
     <row r="119" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B119" s="7" t="s">
@@ -24050,11 +31016,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AK67"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55:B59"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -26260,11 +33228,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -26274,7 +33244,7 @@
     <col min="4" max="4" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B1" s="27" t="s">
         <v>353</v>
       </c>
@@ -26285,7 +33255,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -26302,7 +33272,7 @@
         <v>7.3346846514898659E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -26319,7 +33289,7 @@
         <v>8.3642992664733129E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -26333,7 +33303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -26350,7 +33320,7 @@
         <v>0.12897177608937932</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -26367,7 +33337,7 @@
         <v>9.4142018541657921E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -26384,15 +33354,136 @@
         <v>8.5381303053666202E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D8" s="4"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>353</v>
+      </c>
+      <c r="D11" t="s">
+        <v>354</v>
+      </c>
+      <c r="E11" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3">
+        <v>19</v>
+      </c>
+      <c r="C12">
+        <v>5.2631578947368418E-2</v>
+      </c>
+      <c r="D12">
+        <v>5.2631578947368418E-2</v>
+      </c>
+      <c r="E12">
+        <v>5.2631578947368418E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3">
+        <v>15.833333333333334</v>
+      </c>
+      <c r="C13">
+        <v>6.25E-2</v>
+      </c>
+      <c r="D13">
+        <v>6.25E-2</v>
+      </c>
+      <c r="E13">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3">
+        <v>51.81818181818182</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3">
+        <v>9.1324200913242013</v>
+      </c>
+      <c r="C15">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="D15">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="E15">
+        <v>0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3">
+        <v>13.533333333333333</v>
+      </c>
+      <c r="C16">
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="D16">
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="E16">
+        <v>7.1428571428571425E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3">
+        <v>15.4</v>
+      </c>
+      <c r="C17">
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="D17">
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="E17">
+        <v>6.6666666666666666E-2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
@@ -26400,7 +33491,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -26412,7 +33503,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="34" t="s">
         <v>381</v>
       </c>
       <c r="B1" s="27" t="s">
@@ -26429,43 +33520,41 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="34">
-        <v>0.05</v>
-      </c>
-      <c r="C2" s="4">
-        <f>B2</f>
-        <v>0.05</v>
-      </c>
-      <c r="D2" s="34">
-        <v>5.2999999999999999E-2</v>
+      <c r="B2" s="35">
+        <v>5.2631578947368418E-2</v>
+      </c>
+      <c r="C2" s="35">
+        <v>5.2631578947368418E-2</v>
+      </c>
+      <c r="D2" s="35">
+        <v>5.2631578947368418E-2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="34">
-        <v>5.2999999999999999E-2</v>
-      </c>
-      <c r="C3" s="4">
-        <f>B3</f>
-        <v>5.2999999999999999E-2</v>
-      </c>
-      <c r="D3" s="34">
-        <v>6.2E-2</v>
+      <c r="B3" s="35">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C3" s="35">
+        <v>6.25E-2</v>
+      </c>
+      <c r="D3" s="35">
+        <v>6.25E-2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="5">
-        <v>0</v>
-      </c>
-      <c r="C4" s="5">
-        <v>0</v>
-      </c>
-      <c r="D4" s="5">
+      <c r="B4" s="36">
+        <v>0</v>
+      </c>
+      <c r="C4" s="36">
+        <v>0</v>
+      </c>
+      <c r="D4" s="36">
         <v>0</v>
       </c>
     </row>
@@ -26473,45 +33562,42 @@
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="34">
-        <v>0.114</v>
-      </c>
-      <c r="C5" s="4">
-        <f>B5</f>
-        <v>0.114</v>
-      </c>
-      <c r="D5" s="34">
-        <v>0.112</v>
+      <c r="B5" s="35">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="C5" s="35">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="D5" s="35">
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="34">
-        <v>7.1499999999999994E-2</v>
-      </c>
-      <c r="C6" s="4">
-        <f>B6</f>
-        <v>7.1499999999999994E-2</v>
-      </c>
-      <c r="D6" s="34">
-        <v>7.1199999999999999E-2</v>
+      <c r="B6" s="35">
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="C6" s="35">
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="D6" s="35">
+        <v>7.1428571428571425E-2</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="34">
-        <v>7.3999999999999996E-2</v>
-      </c>
-      <c r="C7" s="4">
-        <f>B7</f>
-        <v>7.3999999999999996E-2</v>
-      </c>
-      <c r="D7" s="34">
-        <v>6.3500000000000001E-2</v>
+      <c r="B7" s="35">
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="C7" s="35">
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="D7" s="35">
+        <v>6.6666666666666666E-2</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
